--- a/opm_hero_property/heroes/51.xlsx
+++ b/opm_hero_property/heroes/51.xlsx
@@ -14,6 +14,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="talent" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mechanical" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="limiter" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="status" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1197,7 +1198,7 @@
         <v>11152</v>
       </c>
       <c r="D4" t="n">
-        <v>11152</v>
+        <v>11440</v>
       </c>
       <c r="E4" t="n">
         <v>238</v>
@@ -1304,7 +1305,7 @@
         <v>12458</v>
       </c>
       <c r="D5" t="n">
-        <v>12458</v>
+        <v>13071</v>
       </c>
       <c r="E5" t="n">
         <v>357</v>
@@ -1411,7 +1412,7 @@
         <v>13994</v>
       </c>
       <c r="D6" t="n">
-        <v>13994</v>
+        <v>14991</v>
       </c>
       <c r="E6" t="n">
         <v>490</v>
@@ -1518,7 +1519,7 @@
         <v>15760</v>
       </c>
       <c r="D7" t="n">
-        <v>15760</v>
+        <v>18998</v>
       </c>
       <c r="E7" t="n">
         <v>918</v>
@@ -1625,7 +1626,7 @@
         <v>17757</v>
       </c>
       <c r="D8" t="n">
-        <v>17757</v>
+        <v>24541</v>
       </c>
       <c r="E8" t="n">
         <v>1360</v>
@@ -1732,7 +1733,7 @@
         <v>20061</v>
       </c>
       <c r="D9" t="n">
-        <v>20061</v>
+        <v>32003</v>
       </c>
       <c r="E9" t="n">
         <v>1795</v>
@@ -1839,7 +1840,7 @@
         <v>21290</v>
       </c>
       <c r="D10" t="n">
-        <v>21290</v>
+        <v>38218</v>
       </c>
       <c r="E10" t="n">
         <v>2122</v>
@@ -1946,7 +1947,7 @@
         <v>22749</v>
       </c>
       <c r="D11" t="n">
-        <v>22749</v>
+        <v>45848</v>
       </c>
       <c r="E11" t="n">
         <v>2476</v>
@@ -2053,7 +2054,7 @@
         <v>25821</v>
       </c>
       <c r="D12" t="n">
-        <v>25821</v>
+        <v>59430</v>
       </c>
       <c r="E12" t="n">
         <v>3047</v>
@@ -2160,7 +2161,7 @@
         <v>26436</v>
       </c>
       <c r="D13" t="n">
-        <v>26436</v>
+        <v>61349</v>
       </c>
       <c r="E13" t="n">
         <v>3428</v>
@@ -2267,7 +2268,7 @@
         <v>27050</v>
       </c>
       <c r="D14" t="n">
-        <v>27050</v>
+        <v>63269</v>
       </c>
       <c r="E14" t="n">
         <v>3809</v>
@@ -2374,7 +2375,7 @@
         <v>27664</v>
       </c>
       <c r="D15" t="n">
-        <v>27664</v>
+        <v>65188</v>
       </c>
       <c r="E15" t="n">
         <v>4189</v>
@@ -2481,7 +2482,7 @@
         <v>28279</v>
       </c>
       <c r="D16" t="n">
-        <v>28279</v>
+        <v>67108</v>
       </c>
       <c r="E16" t="n">
         <v>4570</v>
@@ -2588,7 +2589,7 @@
         <v>28893</v>
       </c>
       <c r="D17" t="n">
-        <v>28893</v>
+        <v>69027</v>
       </c>
       <c r="E17" t="n">
         <v>4951</v>
@@ -6534,4 +6535,2652 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AK23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>战斗类型</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>品质</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>pve等级</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>等级强化</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>装备品质%</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>装备强化%</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>天赋</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>研究所核心</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>职阶</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>限制器</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>机械核心</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>HeroId</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Quality</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Level</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>EnhancePeriod</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Equips</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>TalentLevel</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Skills</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>hp</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>atk</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>crit</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>crit_res</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>crit_dmg</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>precise</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>parry</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>dmg_res</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>fury</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>show_level</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>chase</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>academy</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>job</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>limiter</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>mechanical</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>aura</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>type_aura</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>81</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="n">
+        <v>5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>81</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>3,2,1,1,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T2" t="n">
+        <v>29212.6960532</v>
+      </c>
+      <c r="U2" t="n">
+        <v>5328.2706664</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2148.3531486</v>
+      </c>
+      <c r="W2" t="n">
+        <v>2100</v>
+      </c>
+      <c r="X2" t="n">
+        <v>800</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1550</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>400</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>121</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>51</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="n">
+        <v>7</v>
+      </c>
+      <c r="O3" t="n">
+        <v>121</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>3,2,2,2,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T3" t="n">
+        <v>40962.0917257</v>
+      </c>
+      <c r="U3" t="n">
+        <v>7621.0121608</v>
+      </c>
+      <c r="V3" t="n">
+        <v>3294.814162</v>
+      </c>
+      <c r="W3" t="n">
+        <v>2100</v>
+      </c>
+      <c r="X3" t="n">
+        <v>800</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1550</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>400</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>121</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>161</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>9</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>51</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9</v>
+      </c>
+      <c r="O4" t="n">
+        <v>161</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>4,3,2,2,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T4" t="n">
+        <v>73804.98072360001</v>
+      </c>
+      <c r="U4" t="n">
+        <v>13414.619</v>
+      </c>
+      <c r="V4" t="n">
+        <v>6997.444744</v>
+      </c>
+      <c r="W4" t="n">
+        <v>2100</v>
+      </c>
+      <c r="X4" t="n">
+        <v>800</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1550</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>400</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" t="n">
+        <v>161</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>9</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>15</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>51</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="n">
+        <v>9</v>
+      </c>
+      <c r="O5" t="n">
+        <v>161</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>4,3,2,2,0,1,0,0,1</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>73804.98072360001</v>
+      </c>
+      <c r="U5" t="n">
+        <v>13414.619</v>
+      </c>
+      <c r="V5" t="n">
+        <v>6997.444744</v>
+      </c>
+      <c r="W5" t="n">
+        <v>2180</v>
+      </c>
+      <c r="X5" t="n">
+        <v>800</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1610</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>400</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="n">
+        <v>161</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>9</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>15</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>51</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="n">
+        <v>9</v>
+      </c>
+      <c r="O6" t="n">
+        <v>161</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>4,3,2,2,1,1,0,0,2</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v>65814.1130556</v>
+      </c>
+      <c r="U6" t="n">
+        <v>12487.649</v>
+      </c>
+      <c r="V6" t="n">
+        <v>6270.244024</v>
+      </c>
+      <c r="W6" t="n">
+        <v>2180</v>
+      </c>
+      <c r="X6" t="n">
+        <v>800</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>860</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>400</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>11</v>
+      </c>
+      <c r="C7" t="n">
+        <v>240</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>25</v>
+      </c>
+      <c r="I7" t="n">
+        <v>15</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>51</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="n">
+        <v>11</v>
+      </c>
+      <c r="O7" t="n">
+        <v>240</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>5,3,3,3,0,2,1,0,0</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
+        <v>268644.0270308</v>
+      </c>
+      <c r="U7" t="n">
+        <v>46630.805184</v>
+      </c>
+      <c r="V7" t="n">
+        <v>30329.980586</v>
+      </c>
+      <c r="W7" t="n">
+        <v>3620</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>2370</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>11</v>
+      </c>
+      <c r="C8" t="n">
+        <v>240</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>25</v>
+      </c>
+      <c r="I8" t="n">
+        <v>15</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>51</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="n">
+        <v>11</v>
+      </c>
+      <c r="O8" t="n">
+        <v>240</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>5,3,3,3,1,2,1,0,1</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v>232368.0322268</v>
+      </c>
+      <c r="U8" t="n">
+        <v>42717.267264</v>
+      </c>
+      <c r="V8" t="n">
+        <v>26479.258406</v>
+      </c>
+      <c r="W8" t="n">
+        <v>3620</v>
+      </c>
+      <c r="X8" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>1620</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>11</v>
+      </c>
+      <c r="C9" t="n">
+        <v>240</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" t="n">
+        <v>10</v>
+      </c>
+      <c r="H9" t="n">
+        <v>25</v>
+      </c>
+      <c r="I9" t="n">
+        <v>15</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>51</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="n">
+        <v>11</v>
+      </c>
+      <c r="O9" t="n">
+        <v>240</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="n">
+        <v>10</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>5,3,3,3,2,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
+        <v>244460.0304948</v>
+      </c>
+      <c r="U9" t="n">
+        <v>44021.779904</v>
+      </c>
+      <c r="V9" t="n">
+        <v>27762.832466</v>
+      </c>
+      <c r="W9" t="n">
+        <v>3620</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1870</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11</v>
+      </c>
+      <c r="C10" t="n">
+        <v>240</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>10</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5</v>
+      </c>
+      <c r="G10" t="n">
+        <v>20</v>
+      </c>
+      <c r="H10" t="n">
+        <v>25</v>
+      </c>
+      <c r="I10" t="n">
+        <v>15</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>51</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="n">
+        <v>11</v>
+      </c>
+      <c r="O10" t="n">
+        <v>240</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="n">
+        <v>20</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>5,3,3,3,3,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T10" t="n">
+        <v>256552.0287628</v>
+      </c>
+      <c r="U10" t="n">
+        <v>45326.292544</v>
+      </c>
+      <c r="V10" t="n">
+        <v>29046.406526</v>
+      </c>
+      <c r="W10" t="n">
+        <v>3620</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>2120</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" t="n">
+        <v>240</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>30</v>
+      </c>
+      <c r="H11" t="n">
+        <v>25</v>
+      </c>
+      <c r="I11" t="n">
+        <v>15</v>
+      </c>
+      <c r="J11" t="n">
+        <v>10</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>51</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="n">
+        <v>11</v>
+      </c>
+      <c r="O11" t="n">
+        <v>240</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="n">
+        <v>30</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,1,0,10</t>
+        </is>
+      </c>
+      <c r="T11" t="n">
+        <v>268644.0270308</v>
+      </c>
+      <c r="U11" t="n">
+        <v>46630.805184</v>
+      </c>
+      <c r="V11" t="n">
+        <v>30329.980586</v>
+      </c>
+      <c r="W11" t="n">
+        <v>3620</v>
+      </c>
+      <c r="X11" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>2370</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="n">
+        <v>240</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G12" t="n">
+        <v>30</v>
+      </c>
+      <c r="H12" t="n">
+        <v>25</v>
+      </c>
+      <c r="I12" t="n">
+        <v>14</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>51</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="n">
+        <v>11</v>
+      </c>
+      <c r="O12" t="n">
+        <v>240</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="n">
+        <v>30</v>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,0,0,5</t>
+        </is>
+      </c>
+      <c r="T12" t="n">
+        <v>268644.0270308</v>
+      </c>
+      <c r="U12" t="n">
+        <v>46630.805184</v>
+      </c>
+      <c r="V12" t="n">
+        <v>30329.980586</v>
+      </c>
+      <c r="W12" t="n">
+        <v>3540</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>2310</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>13</v>
+      </c>
+      <c r="C13" t="n">
+        <v>260</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>10</v>
+      </c>
+      <c r="F13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>30</v>
+      </c>
+      <c r="H13" t="n">
+        <v>35</v>
+      </c>
+      <c r="I13" t="n">
+        <v>24</v>
+      </c>
+      <c r="J13" t="n">
+        <v>6</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>51</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="n">
+        <v>13</v>
+      </c>
+      <c r="O13" t="n">
+        <v>260</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="n">
+        <v>30</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,0,6</t>
+        </is>
+      </c>
+      <c r="T13" t="n">
+        <v>398509.303764</v>
+      </c>
+      <c r="U13" t="n">
+        <v>69751.88188</v>
+      </c>
+      <c r="V13" t="n">
+        <v>51088.57427319999</v>
+      </c>
+      <c r="W13" t="n">
+        <v>3700</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>2430</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="n">
+        <v>260</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" t="n">
+        <v>5</v>
+      </c>
+      <c r="G14" t="n">
+        <v>30</v>
+      </c>
+      <c r="H14" t="n">
+        <v>35</v>
+      </c>
+      <c r="I14" t="n">
+        <v>25</v>
+      </c>
+      <c r="J14" t="n">
+        <v>7</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>51</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="n">
+        <v>13</v>
+      </c>
+      <c r="O14" t="n">
+        <v>260</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="n">
+        <v>30</v>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,1,7</t>
+        </is>
+      </c>
+      <c r="T14" t="n">
+        <v>398509.303764</v>
+      </c>
+      <c r="U14" t="n">
+        <v>69751.88188</v>
+      </c>
+      <c r="V14" t="n">
+        <v>51088.57427319999</v>
+      </c>
+      <c r="W14" t="n">
+        <v>3780</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>2490</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>15</v>
+      </c>
+      <c r="C15" t="n">
+        <v>300</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>10</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5</v>
+      </c>
+      <c r="G15" t="n">
+        <v>30</v>
+      </c>
+      <c r="H15" t="n">
+        <v>55</v>
+      </c>
+      <c r="I15" t="n">
+        <v>45</v>
+      </c>
+      <c r="J15" t="n">
+        <v>8</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>51</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="n">
+        <v>15</v>
+      </c>
+      <c r="O15" t="n">
+        <v>300</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="n">
+        <v>30</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T15" t="n">
+        <v>962343.6216866</v>
+      </c>
+      <c r="U15" t="n">
+        <v>172598.7344592</v>
+      </c>
+      <c r="V15" t="n">
+        <v>142557.1544</v>
+      </c>
+      <c r="W15" t="n">
+        <v>4100</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>2730</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>16</v>
+      </c>
+      <c r="C16" t="n">
+        <v>400</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G16" t="n">
+        <v>30</v>
+      </c>
+      <c r="H16" t="n">
+        <v>95</v>
+      </c>
+      <c r="I16" t="n">
+        <v>85</v>
+      </c>
+      <c r="J16" t="n">
+        <v>10</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>51</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="n">
+        <v>16</v>
+      </c>
+      <c r="O16" t="n">
+        <v>400</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="n">
+        <v>30</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T16" t="n">
+        <v>5014392.9365138</v>
+      </c>
+      <c r="U16" t="n">
+        <v>889297.1229076</v>
+      </c>
+      <c r="V16" t="n">
+        <v>721027.7034594</v>
+      </c>
+      <c r="W16" t="n">
+        <v>4740</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>3210</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="n">
+        <v>500</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G17" t="n">
+        <v>30</v>
+      </c>
+      <c r="H17" t="n">
+        <v>160</v>
+      </c>
+      <c r="I17" t="n">
+        <v>150</v>
+      </c>
+      <c r="J17" t="n">
+        <v>10</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>51</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="n">
+        <v>16</v>
+      </c>
+      <c r="O17" t="n">
+        <v>500</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="n">
+        <v>30</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T17" t="n">
+        <v>8198463.9735629</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1454919.1205004</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1171660.2509208</v>
+      </c>
+      <c r="W17" t="n">
+        <v>5780</v>
+      </c>
+      <c r="X17" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>3990</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>160</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="inlineStr"/>
+      <c r="AK17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>9</v>
+      </c>
+      <c r="C18" t="n">
+        <v>161</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>9</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>15</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>51</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="n">
+        <v>9</v>
+      </c>
+      <c r="O18" t="n">
+        <v>256</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>5,3,3,3,1,1,0,0,1</t>
+        </is>
+      </c>
+      <c r="T18" t="n">
+        <v>218833.0193959</v>
+      </c>
+      <c r="U18" t="n">
+        <v>43551.256788</v>
+      </c>
+      <c r="V18" t="n">
+        <v>24212.6666064</v>
+      </c>
+      <c r="W18" t="n">
+        <v>2180</v>
+      </c>
+      <c r="X18" t="n">
+        <v>800</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>860</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>400</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>256</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="inlineStr"/>
+      <c r="AK18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" t="n">
+        <v>200</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>9</v>
+      </c>
+      <c r="F19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G19" t="n">
+        <v>10</v>
+      </c>
+      <c r="H19" t="n">
+        <v>20</v>
+      </c>
+      <c r="I19" t="n">
+        <v>10</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>51</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="n">
+        <v>10</v>
+      </c>
+      <c r="O19" t="n">
+        <v>260</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="n">
+        <v>10</v>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>5,3,3,3,2,2,0,0,2</t>
+        </is>
+      </c>
+      <c r="T19" t="n">
+        <v>296541.7552602</v>
+      </c>
+      <c r="U19" t="n">
+        <v>55887.0017784</v>
+      </c>
+      <c r="V19" t="n">
+        <v>34348.9305664</v>
+      </c>
+      <c r="W19" t="n">
+        <v>3540</v>
+      </c>
+      <c r="X19" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>1810</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="inlineStr"/>
+      <c r="AK19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>11</v>
+      </c>
+      <c r="C20" t="n">
+        <v>240</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>10</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5</v>
+      </c>
+      <c r="G20" t="n">
+        <v>20</v>
+      </c>
+      <c r="H20" t="n">
+        <v>25</v>
+      </c>
+      <c r="I20" t="n">
+        <v>15</v>
+      </c>
+      <c r="J20" t="n">
+        <v>5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>51</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>11</v>
+      </c>
+      <c r="O20" t="n">
+        <v>264</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="n">
+        <v>20</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>5,3,3,3,3,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T20" t="n">
+        <v>383297.8548692</v>
+      </c>
+      <c r="U20" t="n">
+        <v>69399.23695240001</v>
+      </c>
+      <c r="V20" t="n">
+        <v>48878.353322</v>
+      </c>
+      <c r="W20" t="n">
+        <v>3620</v>
+      </c>
+      <c r="X20" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>2120</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>264</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="inlineStr"/>
+      <c r="AK20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>13</v>
+      </c>
+      <c r="C21" t="n">
+        <v>260</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>10</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G21" t="n">
+        <v>30</v>
+      </c>
+      <c r="H21" t="n">
+        <v>35</v>
+      </c>
+      <c r="I21" t="n">
+        <v>25</v>
+      </c>
+      <c r="J21" t="n">
+        <v>7</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>51</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="n">
+        <v>13</v>
+      </c>
+      <c r="O21" t="n">
+        <v>266</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="n">
+        <v>30</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,1,7</t>
+        </is>
+      </c>
+      <c r="T21" t="n">
+        <v>443771.798678</v>
+      </c>
+      <c r="U21" t="n">
+        <v>81152.08724000001</v>
+      </c>
+      <c r="V21" t="n">
+        <v>58596.0851374</v>
+      </c>
+      <c r="W21" t="n">
+        <v>3780</v>
+      </c>
+      <c r="X21" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>2490</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>266</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="inlineStr"/>
+      <c r="AK21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>15</v>
+      </c>
+      <c r="C22" t="n">
+        <v>300</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>10</v>
+      </c>
+      <c r="F22" t="n">
+        <v>5</v>
+      </c>
+      <c r="G22" t="n">
+        <v>30</v>
+      </c>
+      <c r="H22" t="n">
+        <v>55</v>
+      </c>
+      <c r="I22" t="n">
+        <v>45</v>
+      </c>
+      <c r="J22" t="n">
+        <v>8</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>51</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="n">
+        <v>15</v>
+      </c>
+      <c r="O22" t="n">
+        <v>270</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="n">
+        <v>30</v>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T22" t="n">
+        <v>510661.32454</v>
+      </c>
+      <c r="U22" t="n">
+        <v>98619.5734104</v>
+      </c>
+      <c r="V22" t="n">
+        <v>71514.12915920001</v>
+      </c>
+      <c r="W22" t="n">
+        <v>4100</v>
+      </c>
+      <c r="X22" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>2730</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>270</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="inlineStr"/>
+      <c r="AK22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>16</v>
+      </c>
+      <c r="C23" t="n">
+        <v>400</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>10</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5</v>
+      </c>
+      <c r="G23" t="n">
+        <v>30</v>
+      </c>
+      <c r="H23" t="n">
+        <v>95</v>
+      </c>
+      <c r="I23" t="n">
+        <v>85</v>
+      </c>
+      <c r="J23" t="n">
+        <v>10</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>51</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="n">
+        <v>16</v>
+      </c>
+      <c r="O23" t="n">
+        <v>280</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="n">
+        <v>30</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T23" t="n">
+        <v>648208.8926601</v>
+      </c>
+      <c r="U23" t="n">
+        <v>134234.1699012</v>
+      </c>
+      <c r="V23" t="n">
+        <v>97772.48092820001</v>
+      </c>
+      <c r="W23" t="n">
+        <v>4740</v>
+      </c>
+      <c r="X23" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>3210</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>280</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="inlineStr"/>
+      <c r="AK23" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/opm_hero_property/heroes/51.xlsx
+++ b/opm_hero_property/heroes/51.xlsx
@@ -6543,7 +6543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK23"/>
+  <dimension ref="A1:AS25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6737,6 +6737,46 @@
           <t>type_aura</t>
         </is>
       </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>基础战力</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>装备战力</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>天赋战力</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>研究所战力</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>职阶战力</t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t>机械核心战力</t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t>限制器战力</t>
+        </is>
+      </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t>总战力</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -6745,31 +6785,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C2" t="n">
+        <v>400</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" t="n">
         <v>5</v>
       </c>
-      <c r="C2" t="n">
-        <v>81</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -6781,106 +6821,130 @@
         <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="O2" t="n">
-        <v>81</v>
+        <v>400</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>3,2,1,1,0,0,0,0,0</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>29212.6960532</v>
+        <v>5149269.9365138</v>
       </c>
       <c r="U2" t="n">
-        <v>5328.2706664</v>
+        <v>913025.1229076</v>
       </c>
       <c r="V2" t="n">
-        <v>2148.3531486</v>
+        <v>742867.7034594</v>
       </c>
       <c r="W2" t="n">
-        <v>2100</v>
+        <v>4740</v>
       </c>
       <c r="X2" t="n">
-        <v>800</v>
+        <v>1440</v>
       </c>
       <c r="Y2" t="n">
         <v>15000</v>
       </c>
       <c r="Z2" t="n">
-        <v>1550</v>
+        <v>3210</v>
       </c>
       <c r="AA2" t="n">
-        <v>1200</v>
+        <v>2160</v>
       </c>
       <c r="AB2" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
         <v>400</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>81</v>
       </c>
       <c r="AE2" t="n">
         <v>5000</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI2" t="n">
         <v>0</v>
       </c>
       <c r="AJ2" t="inlineStr"/>
       <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="n">
+        <v>11223015.574385</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1911222.20508279</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>481003.7</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>2007105.4</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>15736654.07946779</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>pve</t>
+          <t>pvp</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n">
-        <v>121</v>
+        <v>400</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -6892,73 +6956,97 @@
         <v>2</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="O3" t="n">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>3,2,2,2,0,0,0,0,0</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>40962.0917257</v>
+        <v>648208.8926601</v>
       </c>
       <c r="U3" t="n">
-        <v>7621.0121608</v>
+        <v>134234.1699012</v>
       </c>
       <c r="V3" t="n">
-        <v>3294.814162</v>
+        <v>97772.48092820001</v>
       </c>
       <c r="W3" t="n">
-        <v>2100</v>
+        <v>4740</v>
       </c>
       <c r="X3" t="n">
-        <v>800</v>
+        <v>1440</v>
       </c>
       <c r="Y3" t="n">
         <v>15000</v>
       </c>
       <c r="Z3" t="n">
-        <v>1550</v>
+        <v>3210</v>
       </c>
       <c r="AA3" t="n">
-        <v>1200</v>
+        <v>2160</v>
       </c>
       <c r="AB3" t="n">
-        <v>400</v>
+        <v>720</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="AE3" t="n">
         <v>5000</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI3" t="n">
         <v>0</v>
       </c>
       <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="n">
+        <v>1271762.297045</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>217127.38327053</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>68760.45</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>480680.6</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>2152637.93031553</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -6967,16 +7055,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -6985,10 +7073,10 @@
         <v>-1</v>
       </c>
       <c r="H4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -7003,10 +7091,10 @@
         <v>2</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -7017,50 +7105,50 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>4,3,2,2,0,0,0,0,0</t>
+          <t>3,2,1,1,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>73804.98072360001</v>
+        <v>7290.6196</v>
       </c>
       <c r="U4" t="n">
-        <v>13414.619</v>
+        <v>1629.2586</v>
       </c>
       <c r="V4" t="n">
-        <v>6997.444744</v>
+        <v>561.3551</v>
       </c>
       <c r="W4" t="n">
-        <v>2100</v>
+        <v>600</v>
       </c>
       <c r="X4" t="n">
-        <v>800</v>
+        <v>160</v>
       </c>
       <c r="Y4" t="n">
         <v>15000</v>
       </c>
       <c r="Z4" t="n">
-        <v>1550</v>
+        <v>160</v>
       </c>
       <c r="AA4" t="n">
-        <v>1200</v>
+        <v>240</v>
       </c>
       <c r="AB4" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="AC4" t="n">
         <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="AE4" t="n">
         <v>5000</v>
       </c>
       <c r="AF4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
         <v>0</v>
@@ -7070,6 +7158,30 @@
       </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="n">
+        <v>19037.445765</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>4456.85</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>23494.295765</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -7078,16 +7190,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -7096,13 +7208,13 @@
         <v>-1</v>
       </c>
       <c r="H5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -7114,10 +7226,10 @@
         <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -7128,59 +7240,83 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>4,3,2,2,0,1,0,0,1</t>
+          <t>3,2,2,2,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>73804.98072360001</v>
+        <v>19387.0121</v>
       </c>
       <c r="U5" t="n">
-        <v>13414.619</v>
+        <v>4085.0642</v>
       </c>
       <c r="V5" t="n">
-        <v>6997.444744</v>
+        <v>1706.017</v>
       </c>
       <c r="W5" t="n">
-        <v>2180</v>
+        <v>777</v>
       </c>
       <c r="X5" t="n">
-        <v>800</v>
+        <v>320</v>
       </c>
       <c r="Y5" t="n">
         <v>15000</v>
       </c>
       <c r="Z5" t="n">
-        <v>1610</v>
+        <v>320</v>
       </c>
       <c r="AA5" t="n">
-        <v>1200</v>
+        <v>480</v>
       </c>
       <c r="AB5" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="AC5" t="n">
         <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="AE5" t="n">
         <v>5000</v>
       </c>
       <c r="AF5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
         <v>0</v>
       </c>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="n">
+        <v>48324.80283</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>11828.8</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>60153.60283</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -7204,16 +7340,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H6" t="n">
         <v>15</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -7235,39 +7371,39 @@
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>4,3,2,2,1,1,0,0,2</t>
+          <t>4,3,2,2,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>65814.1130556</v>
+        <v>54547.7508</v>
       </c>
       <c r="U6" t="n">
-        <v>12487.649</v>
+        <v>10576.75</v>
       </c>
       <c r="V6" t="n">
-        <v>6270.244024</v>
+        <v>5446.004</v>
       </c>
       <c r="W6" t="n">
-        <v>2180</v>
+        <v>1300</v>
       </c>
       <c r="X6" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="Y6" t="n">
         <v>15000</v>
       </c>
       <c r="Z6" t="n">
-        <v>860</v>
+        <v>600</v>
       </c>
       <c r="AA6" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="AB6" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AC6" t="n">
         <v>0</v>
@@ -7282,16 +7418,40 @@
         <v>15</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
         <v>0</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="n">
+        <v>115407.5488</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>32682</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>9526.799999999999</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>163776.8488</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -7300,31 +7460,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>-1</v>
       </c>
       <c r="H7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I7" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -7336,10 +7496,10 @@
         <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -7350,59 +7510,83 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>5,3,3,3,0,2,1,0,0</t>
+          <t>4,3,2,2,0,1,0,0,1</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>268644.0270308</v>
+        <v>54547.7508</v>
       </c>
       <c r="U7" t="n">
-        <v>46630.805184</v>
+        <v>10576.75</v>
       </c>
       <c r="V7" t="n">
-        <v>30329.980586</v>
+        <v>5446.004</v>
       </c>
       <c r="W7" t="n">
-        <v>3620</v>
+        <v>1380</v>
       </c>
       <c r="X7" t="n">
-        <v>1440</v>
+        <v>600</v>
       </c>
       <c r="Y7" t="n">
         <v>15000</v>
       </c>
       <c r="Z7" t="n">
-        <v>2370</v>
+        <v>660</v>
       </c>
       <c r="AA7" t="n">
-        <v>2160</v>
+        <v>900</v>
       </c>
       <c r="AB7" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="AE7" t="n">
         <v>5000</v>
       </c>
       <c r="AF7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI7" t="n">
         <v>0</v>
       </c>
       <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="n">
+        <v>115407.5488</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>32682</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>9709.799999999999</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>163959.8488</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7411,31 +7595,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>15</v>
+      </c>
+      <c r="I8" t="n">
         <v>5</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>25</v>
-      </c>
-      <c r="I8" t="n">
-        <v>15</v>
-      </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -7447,10 +7631,10 @@
         <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -7461,59 +7645,83 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>5,3,3,3,1,2,1,0,1</t>
+          <t>4,3,2,2,1,1,0,0,2</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>232368.0322268</v>
+        <v>54814.1130556</v>
       </c>
       <c r="U8" t="n">
-        <v>42717.267264</v>
+        <v>10607.649</v>
       </c>
       <c r="V8" t="n">
-        <v>26479.258406</v>
+        <v>5470.244024</v>
       </c>
       <c r="W8" t="n">
-        <v>3620</v>
+        <v>1380</v>
       </c>
       <c r="X8" t="n">
-        <v>1440</v>
+        <v>600</v>
       </c>
       <c r="Y8" t="n">
         <v>15000</v>
       </c>
       <c r="Z8" t="n">
-        <v>1620</v>
+        <v>660</v>
       </c>
       <c r="AA8" t="n">
-        <v>2160</v>
+        <v>900</v>
       </c>
       <c r="AB8" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="AC8" t="n">
         <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="AE8" t="n">
         <v>5000</v>
       </c>
       <c r="AF8" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI8" t="n">
         <v>0</v>
       </c>
       <c r="AJ8" t="inlineStr"/>
       <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="n">
+        <v>115407.5488</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>32682</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>618.9454936</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>9709.799999999999</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>164578.7942936</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7537,7 +7745,7 @@
         <v>5</v>
       </c>
       <c r="G9" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H9" t="n">
         <v>25</v>
@@ -7546,7 +7754,7 @@
         <v>15</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -7568,21 +7776,21 @@
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>5,3,3,3,2,2,1,0,5</t>
+          <t>5,3,3,3,0,2,1,0,0</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>244460.0304948</v>
+        <v>230369.8324</v>
       </c>
       <c r="U9" t="n">
-        <v>44021.779904</v>
+        <v>42743.816</v>
       </c>
       <c r="V9" t="n">
-        <v>27762.832466</v>
+        <v>26477.901</v>
       </c>
       <c r="W9" t="n">
         <v>3620</v>
@@ -7594,7 +7802,7 @@
         <v>15000</v>
       </c>
       <c r="Z9" t="n">
-        <v>1870</v>
+        <v>1620</v>
       </c>
       <c r="AA9" t="n">
         <v>2160</v>
@@ -7618,13 +7826,37 @@
         <v>15</v>
       </c>
       <c r="AH9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
         <v>0</v>
       </c>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="n">
+        <v>521605.44355</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>39338.4</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>690372.0935500001</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7648,7 +7880,7 @@
         <v>5</v>
       </c>
       <c r="G10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>25</v>
@@ -7657,7 +7889,7 @@
         <v>15</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -7679,21 +7911,21 @@
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>5,3,3,3,3,2,1,0,5</t>
+          <t>5,3,3,3,1,2,1,0,1</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>256552.0287628</v>
+        <v>231579.0322268</v>
       </c>
       <c r="U10" t="n">
-        <v>45326.292544</v>
+        <v>42874.267264</v>
       </c>
       <c r="V10" t="n">
-        <v>29046.406526</v>
+        <v>26606.258406</v>
       </c>
       <c r="W10" t="n">
         <v>3620</v>
@@ -7705,7 +7937,7 @@
         <v>15000</v>
       </c>
       <c r="Z10" t="n">
-        <v>2120</v>
+        <v>1620</v>
       </c>
       <c r="AA10" t="n">
         <v>2160</v>
@@ -7729,13 +7961,37 @@
         <v>15</v>
       </c>
       <c r="AH10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI10" t="n">
         <v>0</v>
       </c>
       <c r="AJ10" t="inlineStr"/>
       <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="n">
+        <v>521605.44355</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>2847.3686329</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>39338.4</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>693219.4621828999</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7759,7 +8015,7 @@
         <v>5</v>
       </c>
       <c r="G11" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H11" t="n">
         <v>25</v>
@@ -7768,7 +8024,7 @@
         <v>15</v>
       </c>
       <c r="J11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -7790,21 +8046,21 @@
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,1,0,10</t>
+          <t>5,3,3,3,2,2,1,0,5</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>268644.0270308</v>
+        <v>243671.0304948</v>
       </c>
       <c r="U11" t="n">
-        <v>46630.805184</v>
+        <v>44178.779904</v>
       </c>
       <c r="V11" t="n">
-        <v>30329.980586</v>
+        <v>27889.832466</v>
       </c>
       <c r="W11" t="n">
         <v>3620</v>
@@ -7816,7 +8072,7 @@
         <v>15000</v>
       </c>
       <c r="Z11" t="n">
-        <v>2370</v>
+        <v>1870</v>
       </c>
       <c r="AA11" t="n">
         <v>2160</v>
@@ -7840,13 +8096,37 @@
         <v>15</v>
       </c>
       <c r="AH11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AI11" t="n">
         <v>0</v>
       </c>
       <c r="AJ11" t="inlineStr"/>
       <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="n">
+        <v>521605.44355</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>31533.5549619</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>39338.4</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>721905.6485119</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7870,13 +8150,13 @@
         <v>5</v>
       </c>
       <c r="G12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H12" t="n">
         <v>25</v>
       </c>
       <c r="I12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J12" t="n">
         <v>5</v>
@@ -7901,24 +8181,24 @@
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,0,0,5</t>
+          <t>5,3,3,3,3,2,1,0,5</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>268644.0270308</v>
+        <v>255763.0287628</v>
       </c>
       <c r="U12" t="n">
-        <v>46630.805184</v>
+        <v>45483.292544</v>
       </c>
       <c r="V12" t="n">
-        <v>30329.980586</v>
+        <v>29173.406526</v>
       </c>
       <c r="W12" t="n">
-        <v>3540</v>
+        <v>3620</v>
       </c>
       <c r="X12" t="n">
         <v>1440</v>
@@ -7927,7 +8207,7 @@
         <v>15000</v>
       </c>
       <c r="Z12" t="n">
-        <v>2310</v>
+        <v>2120</v>
       </c>
       <c r="AA12" t="n">
         <v>2160</v>
@@ -7948,7 +8228,7 @@
         <v>25</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH12" t="n">
         <v>5</v>
@@ -7958,6 +8238,30 @@
       </c>
       <c r="AJ12" t="inlineStr"/>
       <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="n">
+        <v>521605.44355</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>60219.7412909</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>39338.4</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>750591.8348409</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -7966,10 +8270,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -7984,13 +8288,13 @@
         <v>30</v>
       </c>
       <c r="H13" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I13" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -8002,10 +8306,10 @@
         <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -8016,20 +8320,20 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,0,6</t>
+          <t>5,3,3,3,4,2,1,0,10</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>398509.303764</v>
+        <v>267855.0270308</v>
       </c>
       <c r="U13" t="n">
-        <v>69751.88188</v>
+        <v>46787.805184</v>
       </c>
       <c r="V13" t="n">
-        <v>51088.57427319999</v>
+        <v>30456.980586</v>
       </c>
       <c r="W13" t="n">
-        <v>3700</v>
+        <v>3620</v>
       </c>
       <c r="X13" t="n">
         <v>1440</v>
@@ -8038,7 +8342,7 @@
         <v>15000</v>
       </c>
       <c r="Z13" t="n">
-        <v>2430</v>
+        <v>2370</v>
       </c>
       <c r="AA13" t="n">
         <v>2160</v>
@@ -8050,25 +8354,49 @@
         <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AE13" t="n">
         <v>5000</v>
       </c>
       <c r="AF13" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AG13" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AH13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AI13" t="n">
         <v>0</v>
       </c>
       <c r="AJ13" t="inlineStr"/>
       <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="n">
+        <v>521605.44355</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>88905.9276199</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>39338.4</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>779278.0211699</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -8077,10 +8405,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -8095,13 +8423,13 @@
         <v>30</v>
       </c>
       <c r="H14" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I14" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="J14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8113,10 +8441,10 @@
         <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -8127,20 +8455,20 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,1,7</t>
+          <t>5,3,3,3,4,2,0,0,5</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>398509.303764</v>
+        <v>267855.0270308</v>
       </c>
       <c r="U14" t="n">
-        <v>69751.88188</v>
+        <v>46787.805184</v>
       </c>
       <c r="V14" t="n">
-        <v>51088.57427319999</v>
+        <v>30456.980586</v>
       </c>
       <c r="W14" t="n">
-        <v>3780</v>
+        <v>3540</v>
       </c>
       <c r="X14" t="n">
         <v>1440</v>
@@ -8149,7 +8477,7 @@
         <v>15000</v>
       </c>
       <c r="Z14" t="n">
-        <v>2490</v>
+        <v>2310</v>
       </c>
       <c r="AA14" t="n">
         <v>2160</v>
@@ -8161,25 +8489,49 @@
         <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AE14" t="n">
         <v>5000</v>
       </c>
       <c r="AF14" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AG14" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="AH14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AI14" t="n">
         <v>0</v>
       </c>
       <c r="AJ14" t="inlineStr"/>
       <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="n">
+        <v>521605.44355</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>88905.9276199</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>39155.4</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>779095.0211699</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -8188,10 +8540,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -8206,13 +8558,13 @@
         <v>30</v>
       </c>
       <c r="H15" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="I15" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="J15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -8224,10 +8576,10 @@
         <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -8238,20 +8590,20 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,3,3,3,8</t>
+          <t>5,3,3,3,4,2,2,0,6</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>962343.6216866</v>
+        <v>401009.303764</v>
       </c>
       <c r="U15" t="n">
-        <v>172598.7344592</v>
+        <v>70559.88188</v>
       </c>
       <c r="V15" t="n">
-        <v>142557.1544</v>
+        <v>51862.57427319999</v>
       </c>
       <c r="W15" t="n">
-        <v>4100</v>
+        <v>3700</v>
       </c>
       <c r="X15" t="n">
         <v>1440</v>
@@ -8260,7 +8612,7 @@
         <v>15000</v>
       </c>
       <c r="Z15" t="n">
-        <v>2730</v>
+        <v>2430</v>
       </c>
       <c r="AA15" t="n">
         <v>2160</v>
@@ -8272,25 +8624,49 @@
         <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="AE15" t="n">
         <v>5000</v>
       </c>
       <c r="AF15" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AG15" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="AH15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AI15" t="n">
         <v>0</v>
       </c>
       <c r="AJ15" t="inlineStr"/>
       <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="n">
+        <v>803280.94565</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>137022.4451569</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>33220.2</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>111894</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>1199724.7908069</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -8299,10 +8675,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -8317,13 +8693,13 @@
         <v>30</v>
       </c>
       <c r="H16" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="I16" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="J16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -8335,10 +8711,10 @@
         <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -8349,20 +8725,20 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,2,2,1,7</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>5014392.9365138</v>
+        <v>401009.303764</v>
       </c>
       <c r="U16" t="n">
-        <v>889297.1229076</v>
+        <v>70559.88188</v>
       </c>
       <c r="V16" t="n">
-        <v>721027.7034594</v>
+        <v>51862.57427319999</v>
       </c>
       <c r="W16" t="n">
-        <v>4740</v>
+        <v>3780</v>
       </c>
       <c r="X16" t="n">
         <v>1440</v>
@@ -8371,7 +8747,7 @@
         <v>15000</v>
       </c>
       <c r="Z16" t="n">
-        <v>3210</v>
+        <v>2490</v>
       </c>
       <c r="AA16" t="n">
         <v>2160</v>
@@ -8383,25 +8759,49 @@
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="AE16" t="n">
         <v>5000</v>
       </c>
       <c r="AF16" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="AG16" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="AH16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI16" t="n">
         <v>0</v>
       </c>
       <c r="AJ16" t="inlineStr"/>
       <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="n">
+        <v>803280.94565</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>137022.4451569</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>33220.2</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>112077</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>1199907.7908069</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -8410,10 +8810,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -8428,13 +8828,13 @@
         <v>30</v>
       </c>
       <c r="H17" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="I17" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="J17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -8446,10 +8846,10 @@
         <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -8460,20 +8860,20 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,3,3,3,8</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>8198463.9735629</v>
+        <v>999838.6216866</v>
       </c>
       <c r="U17" t="n">
-        <v>1454919.1205004</v>
+        <v>179455.7344592</v>
       </c>
       <c r="V17" t="n">
-        <v>1171660.2509208</v>
+        <v>149190.1544</v>
       </c>
       <c r="W17" t="n">
-        <v>5780</v>
+        <v>4100</v>
       </c>
       <c r="X17" t="n">
         <v>1440</v>
@@ -8482,7 +8882,7 @@
         <v>15000</v>
       </c>
       <c r="Z17" t="n">
-        <v>3990</v>
+        <v>2730</v>
       </c>
       <c r="AA17" t="n">
         <v>2160</v>
@@ -8494,58 +8894,82 @@
         <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="AE17" t="n">
         <v>5000</v>
       </c>
       <c r="AF17" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="AG17" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="AH17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI17" t="n">
         <v>0</v>
       </c>
       <c r="AJ17" t="inlineStr"/>
       <c r="AK17" t="inlineStr"/>
+      <c r="AL17" t="n">
+        <v>1841057.90632</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>314406.42093508</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>155697.55</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>685015</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>3110484.07725508</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>pvp</t>
+          <t>pve</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>161</v>
+        <v>400</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H18" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -8557,106 +8981,130 @@
         <v>2</v>
       </c>
       <c r="N18" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="O18" t="n">
-        <v>256</v>
+        <v>400</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>5,3,3,3,1,1,0,0,1</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>218833.0193959</v>
+        <v>5149269.9365138</v>
       </c>
       <c r="U18" t="n">
-        <v>43551.256788</v>
+        <v>913025.1229076</v>
       </c>
       <c r="V18" t="n">
-        <v>24212.6666064</v>
+        <v>742867.7034594</v>
       </c>
       <c r="W18" t="n">
-        <v>2180</v>
+        <v>4740</v>
       </c>
       <c r="X18" t="n">
-        <v>800</v>
+        <v>1440</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
-        <v>860</v>
+        <v>3210</v>
       </c>
       <c r="AA18" t="n">
-        <v>1200</v>
+        <v>2160</v>
       </c>
       <c r="AB18" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
         <v>400</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>256</v>
       </c>
       <c r="AE18" t="n">
         <v>5000</v>
       </c>
       <c r="AF18" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="AG18" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="AH18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AI18" t="n">
         <v>0</v>
       </c>
       <c r="AJ18" t="inlineStr"/>
       <c r="AK18" t="inlineStr"/>
+      <c r="AL18" t="n">
+        <v>11223015.574385</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>1911222.20508279</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>481003.7</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>2007105.4</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>15736654.07946779</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>pvp</t>
+          <t>pve</t>
         </is>
       </c>
       <c r="B19" t="n">
+        <v>16</v>
+      </c>
+      <c r="C19" t="n">
+        <v>500</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
         <v>10</v>
-      </c>
-      <c r="C19" t="n">
-        <v>200</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>9</v>
       </c>
       <c r="F19" t="n">
         <v>5</v>
       </c>
       <c r="G19" t="n">
+        <v>30</v>
+      </c>
+      <c r="H19" t="n">
+        <v>160</v>
+      </c>
+      <c r="I19" t="n">
+        <v>150</v>
+      </c>
+      <c r="J19" t="n">
         <v>10</v>
-      </c>
-      <c r="H19" t="n">
-        <v>20</v>
-      </c>
-      <c r="I19" t="n">
-        <v>10</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -8668,34 +9116,34 @@
         <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="O19" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>5,3,3,3,2,2,0,0,2</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>296541.7552602</v>
+        <v>8508181.9735629</v>
       </c>
       <c r="U19" t="n">
-        <v>55887.0017784</v>
+        <v>1508952.1205004</v>
       </c>
       <c r="V19" t="n">
-        <v>34348.9305664</v>
+        <v>1220892.2509208</v>
       </c>
       <c r="W19" t="n">
-        <v>3540</v>
+        <v>5780</v>
       </c>
       <c r="X19" t="n">
         <v>1440</v>
@@ -8704,7 +9152,7 @@
         <v>15000</v>
       </c>
       <c r="Z19" t="n">
-        <v>1810</v>
+        <v>3990</v>
       </c>
       <c r="AA19" t="n">
         <v>2160</v>
@@ -8716,25 +9164,49 @@
         <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="AE19" t="n">
         <v>5000</v>
       </c>
       <c r="AF19" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="AG19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH19" t="n">
         <v>10</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>2</v>
       </c>
       <c r="AI19" t="n">
         <v>0</v>
       </c>
       <c r="AJ19" t="inlineStr"/>
       <c r="AK19" t="inlineStr"/>
+      <c r="AL19" t="n">
+        <v>18211468.43579</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>3100654.71202026</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>1061573.2</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>3470479</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>25958482.54781026</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -8743,31 +9215,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C20" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>15</v>
+      </c>
+      <c r="I20" t="n">
         <v>5</v>
       </c>
-      <c r="G20" t="n">
-        <v>20</v>
-      </c>
-      <c r="H20" t="n">
-        <v>25</v>
-      </c>
-      <c r="I20" t="n">
-        <v>15</v>
-      </c>
       <c r="J20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -8779,73 +9251,97 @@
         <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O20" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>5,3,3,3,3,2,1,0,5</t>
+          <t>5,3,3,3,1,1,0,0,1</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>383297.8548692</v>
+        <v>207833.0193959</v>
       </c>
       <c r="U20" t="n">
-        <v>69399.23695240001</v>
+        <v>41671.256788</v>
       </c>
       <c r="V20" t="n">
-        <v>48878.353322</v>
+        <v>23412.6666064</v>
       </c>
       <c r="W20" t="n">
-        <v>3620</v>
+        <v>1380</v>
       </c>
       <c r="X20" t="n">
-        <v>1440</v>
+        <v>600</v>
       </c>
       <c r="Y20" t="n">
         <v>15000</v>
       </c>
       <c r="Z20" t="n">
-        <v>2120</v>
+        <v>660</v>
       </c>
       <c r="AA20" t="n">
-        <v>2160</v>
+        <v>900</v>
       </c>
       <c r="AB20" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="AC20" t="n">
         <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="AE20" t="n">
         <v>5000</v>
       </c>
       <c r="AF20" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI20" t="n">
         <v>0</v>
       </c>
       <c r="AJ20" t="inlineStr"/>
       <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="n">
+        <v>551386.8957999999</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>32682</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>2979.9284199</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>14696.9</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>33359.8</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>635105.5242199</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -8854,31 +9350,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C21" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" t="n">
         <v>5</v>
       </c>
       <c r="G21" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H21" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I21" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -8890,73 +9386,97 @@
         <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O21" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,1,7</t>
+          <t>5,3,3,3,2,2,0,0,2</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>443771.798678</v>
+        <v>273441.7552602</v>
       </c>
       <c r="U21" t="n">
-        <v>81152.08724000001</v>
+        <v>51939.0017784</v>
       </c>
       <c r="V21" t="n">
-        <v>58596.0851374</v>
+        <v>32668.9305664</v>
       </c>
       <c r="W21" t="n">
-        <v>3780</v>
+        <v>1860</v>
       </c>
       <c r="X21" t="n">
-        <v>1440</v>
+        <v>900</v>
       </c>
       <c r="Y21" t="n">
         <v>15000</v>
       </c>
       <c r="Z21" t="n">
-        <v>2490</v>
+        <v>1270</v>
       </c>
       <c r="AA21" t="n">
-        <v>2160</v>
+        <v>1350</v>
       </c>
       <c r="AB21" t="n">
-        <v>720</v>
+        <v>450</v>
       </c>
       <c r="AC21" t="n">
         <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="AE21" t="n">
         <v>5000</v>
       </c>
       <c r="AF21" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="AG21" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AH21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AI21" t="n">
         <v>0</v>
       </c>
       <c r="AJ21" t="inlineStr"/>
       <c r="AK21" t="inlineStr"/>
+      <c r="AL21" t="n">
+        <v>653177.36674</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>49023</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>39287.65154796</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>19028.1</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>66719.60000000001</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>827235.71828796</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -8965,10 +9485,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C22" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -8980,16 +9500,16 @@
         <v>5</v>
       </c>
       <c r="G22" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H22" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="I22" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="J22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -9001,34 +9521,34 @@
         <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O22" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,3,3,3,8</t>
+          <t>5,3,3,3,3,2,1,0,5</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>510661.32454</v>
+        <v>383297.8548692</v>
       </c>
       <c r="U22" t="n">
-        <v>98619.5734104</v>
+        <v>69399.23695240001</v>
       </c>
       <c r="V22" t="n">
-        <v>71514.12915920001</v>
+        <v>48878.353322</v>
       </c>
       <c r="W22" t="n">
-        <v>4100</v>
+        <v>3620</v>
       </c>
       <c r="X22" t="n">
         <v>1440</v>
@@ -9037,7 +9557,7 @@
         <v>15000</v>
       </c>
       <c r="Z22" t="n">
-        <v>2730</v>
+        <v>2120</v>
       </c>
       <c r="AA22" t="n">
         <v>2160</v>
@@ -9049,25 +9569,49 @@
         <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="AE22" t="n">
         <v>5000</v>
       </c>
       <c r="AF22" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="AG22" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="AH22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AI22" t="n">
         <v>0</v>
       </c>
       <c r="AJ22" t="inlineStr"/>
       <c r="AK22" t="inlineStr"/>
+      <c r="AL22" t="n">
+        <v>826394.1174400001</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>95474.70400226</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>23382.7</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>96891.39999999999</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>1156450.12144226</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -9076,10 +9620,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C23" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -9094,13 +9638,13 @@
         <v>30</v>
       </c>
       <c r="H23" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="I23" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="J23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9112,10 +9656,10 @@
         <v>2</v>
       </c>
       <c r="N23" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O23" t="n">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9126,20 +9670,20 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,2,2,1,7</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>648208.8926601</v>
+        <v>443771.798678</v>
       </c>
       <c r="U23" t="n">
-        <v>134234.1699012</v>
+        <v>81152.08724000001</v>
       </c>
       <c r="V23" t="n">
-        <v>97772.48092820001</v>
+        <v>58596.0851374</v>
       </c>
       <c r="W23" t="n">
-        <v>4740</v>
+        <v>3780</v>
       </c>
       <c r="X23" t="n">
         <v>1440</v>
@@ -9148,7 +9692,7 @@
         <v>15000</v>
       </c>
       <c r="Z23" t="n">
-        <v>3210</v>
+        <v>2490</v>
       </c>
       <c r="AA23" t="n">
         <v>2160</v>
@@ -9160,25 +9704,319 @@
         <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="AE23" t="n">
         <v>5000</v>
       </c>
       <c r="AF23" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="AG23" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="AH23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI23" t="n">
         <v>0</v>
       </c>
       <c r="AJ23" t="inlineStr"/>
       <c r="AK23" t="inlineStr"/>
+      <c r="AL23" t="n">
+        <v>902423.8294250001</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>153960.51074905</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>30363.65</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>153419</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>1354474.19017405</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>15</v>
+      </c>
+      <c r="C24" t="n">
+        <v>300</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>10</v>
+      </c>
+      <c r="F24" t="n">
+        <v>5</v>
+      </c>
+      <c r="G24" t="n">
+        <v>30</v>
+      </c>
+      <c r="H24" t="n">
+        <v>55</v>
+      </c>
+      <c r="I24" t="n">
+        <v>45</v>
+      </c>
+      <c r="J24" t="n">
+        <v>8</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>51</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="n">
+        <v>15</v>
+      </c>
+      <c r="O24" t="n">
+        <v>270</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="n">
+        <v>30</v>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T24" t="n">
+        <v>510661.32454</v>
+      </c>
+      <c r="U24" t="n">
+        <v>98619.5734104</v>
+      </c>
+      <c r="V24" t="n">
+        <v>71514.12915920001</v>
+      </c>
+      <c r="W24" t="n">
+        <v>4100</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>2730</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>270</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ24" t="inlineStr"/>
+      <c r="AK24" t="inlineStr"/>
+      <c r="AL24" t="n">
+        <v>1022422.68964</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>174490.98409716</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>43173.05</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>262506.2</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>1616900.12373716</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>16</v>
+      </c>
+      <c r="C25" t="n">
+        <v>400</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>10</v>
+      </c>
+      <c r="F25" t="n">
+        <v>5</v>
+      </c>
+      <c r="G25" t="n">
+        <v>30</v>
+      </c>
+      <c r="H25" t="n">
+        <v>95</v>
+      </c>
+      <c r="I25" t="n">
+        <v>85</v>
+      </c>
+      <c r="J25" t="n">
+        <v>10</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>51</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="n">
+        <v>16</v>
+      </c>
+      <c r="O25" t="n">
+        <v>280</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="n">
+        <v>30</v>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T25" t="n">
+        <v>648208.8926601</v>
+      </c>
+      <c r="U25" t="n">
+        <v>134234.1699012</v>
+      </c>
+      <c r="V25" t="n">
+        <v>97772.48092820001</v>
+      </c>
+      <c r="W25" t="n">
+        <v>4740</v>
+      </c>
+      <c r="X25" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>3210</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>280</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="inlineStr"/>
+      <c r="AK25" t="inlineStr"/>
+      <c r="AL25" t="n">
+        <v>1271762.297045</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>217127.38327053</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>68760.45</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>480680.6</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>2152637.93031553</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/opm_hero_property/heroes/51.xlsx
+++ b/opm_hero_property/heroes/51.xlsx
@@ -997,87 +997,87 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,38940;31,9023;41,2685</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,8057</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,13523;41,0</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,4698;31,1090;41,370</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,1111</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,1633;41,0</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>38940.804</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>9023.244999999999</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>2685.726</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1</v>
+        <v>8057.178</v>
       </c>
       <c r="T2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1</v>
+        <v>13523.149</v>
       </c>
       <c r="V2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>4698.6345</v>
       </c>
       <c r="X2" t="n">
-        <v>1</v>
+        <v>1090.243</v>
       </c>
       <c r="Y2" t="n">
-        <v>1</v>
+        <v>370.5228</v>
       </c>
       <c r="Z2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>1</v>
+        <v>1111.5684</v>
       </c>
       <c r="AC2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>1</v>
+        <v>1633.9486</v>
       </c>
       <c r="AE2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1104,87 +1104,87 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,38944;31,9024;41,2686</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,8058</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,13525;41,0</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,4702;31,1091;41,370</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,1112</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,1636;41,0</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>38944.5525</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>9024.6695</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>2686.1364</v>
       </c>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>8058.4092</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>13525.2839</v>
       </c>
       <c r="V3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>1</v>
+        <v>4702.383</v>
       </c>
       <c r="X3" t="n">
-        <v>1</v>
+        <v>1091.6675</v>
       </c>
       <c r="Y3" t="n">
-        <v>1</v>
+        <v>370.9332</v>
       </c>
       <c r="Z3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>1</v>
+        <v>1112.7996</v>
       </c>
       <c r="AC3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>1</v>
+        <v>1636.0835</v>
       </c>
       <c r="AE3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1211,87 +1211,87 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,41488;31,10048;41,3060</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,9182</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,15060;41,0</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,4976;31,1201;41,412</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,1237</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,1801;41,0</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>41488.9463709</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>10048.7815736</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>3060.9303696</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>9182.7911088</v>
       </c>
       <c r="T4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>1</v>
+        <v>15060.12199472</v>
       </c>
       <c r="V4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>1</v>
+        <v>4976.52103305</v>
       </c>
       <c r="X4" t="n">
-        <v>1</v>
+        <v>1201.8977432</v>
       </c>
       <c r="Y4" t="n">
-        <v>1</v>
+        <v>412.3379088</v>
       </c>
       <c r="Z4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>1</v>
+        <v>1237.0137264</v>
       </c>
       <c r="AC4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>1</v>
+        <v>1801.28570864</v>
       </c>
       <c r="AE4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1318,87 +1318,87 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,44374;31,11209;41,3485</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,10456</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,16799;41,0</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,5286;31,1326;41,459</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,1377</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,1988;41,0</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>44374.3921845</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>11209.6507369</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>3485.42089614</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>10456.26268842</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>16799.91811738</v>
       </c>
       <c r="V5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>1</v>
+        <v>5286.955700250001</v>
       </c>
       <c r="X5" t="n">
-        <v>1</v>
+        <v>1326.7168453</v>
       </c>
       <c r="Y5" t="n">
-        <v>1</v>
+        <v>459.21879342</v>
       </c>
       <c r="Z5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>1</v>
+        <v>1377.65638026</v>
       </c>
       <c r="AC5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>1</v>
+        <v>1988.35225906</v>
       </c>
       <c r="AE5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1425,87 +1425,87 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>21,53073;31,11431;41,4078</t>
+          <t>21,47766;31,12574;41,3985</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>21,53073;31,11431;41,4078</t>
+          <t>21,0;31,0;41,11955</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>21,26536;31,5715;41,2039</t>
+          <t>21,0;31,18845;41,0</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>21,6279;31,1339;41,526</t>
+          <t>21,5651;31,1473;41,514</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>21,6279;31,1339;41,526</t>
+          <t>21,0;31,0;41,1543</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>21,3139;31,669;41,263</t>
+          <t>21,0;31,2208;41,0</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>53073</v>
+        <v>47766.1088457</v>
       </c>
       <c r="O6" t="n">
-        <v>11431</v>
+        <v>12574.8640017</v>
       </c>
       <c r="P6" t="n">
-        <v>4078</v>
+        <v>3985.08918894</v>
       </c>
       <c r="Q6" t="n">
-        <v>53073</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>11431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>4078</v>
+        <v>11955.26756682</v>
       </c>
       <c r="T6" t="n">
-        <v>26536</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>5715</v>
+        <v>18845.96501034</v>
       </c>
       <c r="V6" t="n">
-        <v>2039</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>6279</v>
+        <v>5651.664577650001</v>
       </c>
       <c r="X6" t="n">
-        <v>1339</v>
+        <v>1473.4210029</v>
       </c>
       <c r="Y6" t="n">
-        <v>526</v>
+        <v>514.36807182</v>
       </c>
       <c r="Z6" t="n">
-        <v>6279</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>1339</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>526</v>
+        <v>1543.10421546</v>
       </c>
       <c r="AC6" t="n">
-        <v>3139</v>
+        <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>669</v>
+        <v>2208.21797058</v>
       </c>
       <c r="AE6" t="n">
-        <v>263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1532,87 +1532,87 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>21,59185;31,12860;41,5146</t>
+          <t>21,53267;31,14146;41,5028</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>21,59185;31,12860;41,5146</t>
+          <t>21,0;31,0;41,15086</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>21,29592;31,6430;41,2573</t>
+          <t>21,0;31,21201;41,0</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>21,6943;31,1494;41,645</t>
+          <t>21,6249;31,1644;41,630</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>21,6943;31,1494;41,645</t>
+          <t>21,0;31,0;41,1890</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>21,3471;31,747;41,322</t>
+          <t>21,0;31,2464;41,0</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>59185</v>
+        <v>53267.0782833</v>
       </c>
       <c r="O7" t="n">
-        <v>12860</v>
+        <v>14146.538868</v>
       </c>
       <c r="P7" t="n">
-        <v>5146</v>
+        <v>5028.73703532</v>
       </c>
       <c r="Q7" t="n">
-        <v>59185</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>12860</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>5146</v>
+        <v>15086.21110596</v>
       </c>
       <c r="T7" t="n">
-        <v>29592</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>6430</v>
+        <v>21201.4361736</v>
       </c>
       <c r="V7" t="n">
-        <v>2573</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>6943</v>
+        <v>6249.155342849999</v>
       </c>
       <c r="X7" t="n">
-        <v>1494</v>
+        <v>1644.127716</v>
       </c>
       <c r="Y7" t="n">
-        <v>645</v>
+        <v>630.3139959600001</v>
       </c>
       <c r="Z7" t="n">
-        <v>6943</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>1494</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>645</v>
+        <v>1890.94198788</v>
       </c>
       <c r="AC7" t="n">
-        <v>3471</v>
+        <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>747</v>
+        <v>2464.0563432</v>
       </c>
       <c r="AE7" t="n">
-        <v>322</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1639,87 +1639,87 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>21,67086;31,14475;41,6623</t>
+          <t>21,60377;31,15922;41,6472</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>21,67086;31,14475;41,6623</t>
+          <t>21,0;31,0;41,19416</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>21,33543;31,7237;41,3311</t>
+          <t>21,0;31,23863;41,0</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>21,7798;31,1669;41,808</t>
+          <t>21,7018;31,1836;41,790</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>21,7798;31,1669;41,808</t>
+          <t>21,0;31,0;41,2370</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>21,3899;31,834;41,404</t>
+          <t>21,0;31,2751;41,0</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>67086</v>
+        <v>60377.9473269</v>
       </c>
       <c r="O8" t="n">
-        <v>14475</v>
+        <v>15922.67561885</v>
       </c>
       <c r="P8" t="n">
-        <v>6623</v>
+        <v>6472.00323594</v>
       </c>
       <c r="Q8" t="n">
-        <v>67086</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>14475</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>6623</v>
+        <v>19416.00970782</v>
       </c>
       <c r="T8" t="n">
-        <v>33543</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>7237</v>
+        <v>23863.33462877</v>
       </c>
       <c r="V8" t="n">
-        <v>3311</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>7798</v>
+        <v>7018.37459505</v>
       </c>
       <c r="X8" t="n">
-        <v>1669</v>
+        <v>1836.04396745</v>
       </c>
       <c r="Y8" t="n">
-        <v>808</v>
+        <v>790.2630628200001</v>
       </c>
       <c r="Z8" t="n">
-        <v>7798</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>1669</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>808</v>
+        <v>2370.78918846</v>
       </c>
       <c r="AC8" t="n">
-        <v>3899</v>
+        <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>834</v>
+        <v>2751.68147849</v>
       </c>
       <c r="AE8" t="n">
-        <v>404</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1746,87 +1746,87 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>21,77243;31,16336;41,8611</t>
+          <t>21,69519;31,17970;41,8414</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>21,77243;31,16336;41,8611</t>
+          <t>21,0;31,0;41,25243</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>21,38621;31,8168;41,4305</t>
+          <t>21,0;31,26932;41,0</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>21,8892;31,1869;41,1028</t>
+          <t>21,8003;31,2056;41,1005</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>21,8892;31,1869;41,1028</t>
+          <t>21,0;31,0;41,3015</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>21,4446;31,934;41,514</t>
+          <t>21,0;31,3081;41,0</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>77243</v>
+        <v>69519.5793495</v>
       </c>
       <c r="O9" t="n">
-        <v>16336</v>
+        <v>17970.70726605</v>
       </c>
       <c r="P9" t="n">
-        <v>8611</v>
+        <v>8414.40411702</v>
       </c>
       <c r="Q9" t="n">
-        <v>77243</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>16336</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>8611</v>
+        <v>25243.21235106</v>
       </c>
       <c r="T9" t="n">
-        <v>38621</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>8168</v>
+        <v>26932.72231821</v>
       </c>
       <c r="V9" t="n">
-        <v>4305</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>8892</v>
+        <v>8003.52184275</v>
       </c>
       <c r="X9" t="n">
-        <v>1869</v>
+        <v>2056.31195385</v>
       </c>
       <c r="Y9" t="n">
-        <v>1028</v>
+        <v>1005.05931606</v>
       </c>
       <c r="Z9" t="n">
-        <v>8892</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>1869</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>1028</v>
+        <v>3015.17794818</v>
       </c>
       <c r="AC9" t="n">
-        <v>4446</v>
+        <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>934</v>
+        <v>3081.79739577</v>
       </c>
       <c r="AE9" t="n">
-        <v>514</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1853,87 +1853,87 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>21,84859;31,17330;41,10266</t>
+          <t>21,76373;31,19063;41,10032</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>21,84859;31,17330;41,10266</t>
+          <t>21,0;31,0;41,30096</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>21,42429;31,8665;41,5133</t>
+          <t>21,0;31,28569;41,0</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>21,9713;31,1976;41,1211</t>
+          <t>21,8742;31,2173;41,1183</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>21,9713;31,1976;41,1211</t>
+          <t>21,0;31,0;41,3551</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>21,4856;31,988;41,605</t>
+          <t>21,0;31,3257;41,0</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>84859</v>
+        <v>76373.91096930001</v>
       </c>
       <c r="O10" t="n">
-        <v>17330</v>
+        <v>19063.1016345</v>
       </c>
       <c r="P10" t="n">
-        <v>10266</v>
+        <v>10032.19341012</v>
       </c>
       <c r="Q10" t="n">
-        <v>84859</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>17330</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>10266</v>
+        <v>30096.58023036</v>
       </c>
       <c r="T10" t="n">
-        <v>42429</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>8665</v>
+        <v>28569.8951769</v>
       </c>
       <c r="V10" t="n">
-        <v>5133</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>9713</v>
+        <v>8742.20198985</v>
       </c>
       <c r="X10" t="n">
-        <v>1976</v>
+        <v>2173.7403765</v>
       </c>
       <c r="Y10" t="n">
-        <v>1211</v>
+        <v>1183.94982036</v>
       </c>
       <c r="Z10" t="n">
-        <v>9713</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>1976</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>1211</v>
+        <v>3551.84946108</v>
       </c>
       <c r="AC10" t="n">
-        <v>4856</v>
+        <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>988</v>
+        <v>3257.7875253</v>
       </c>
       <c r="AE10" t="n">
-        <v>605</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1960,87 +1960,87 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>21,94145;31,18508;41,12299</t>
+          <t>21,84731;31,20359;41,12018</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>21,94145;31,18508;41,12299</t>
+          <t>21,0;31,0;41,36054</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>21,47072;31,9254;41,6149</t>
+          <t>21,0;31,30513;41,0</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>21,10712;31,2102;41,1436</t>
+          <t>21,9641;31,2312;41,1403</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>21,10712;31,2102;41,1436</t>
+          <t>21,0;31,0;41,4209</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>21,5356;31,1051;41,718</t>
+          <t>21,0;31,3466;41,0</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>94145</v>
+        <v>84731.2544547</v>
       </c>
       <c r="O11" t="n">
-        <v>18508</v>
+        <v>20359.64760445</v>
       </c>
       <c r="P11" t="n">
-        <v>12299</v>
+        <v>12018.07116432</v>
       </c>
       <c r="Q11" t="n">
-        <v>94145</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>18508</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>12299</v>
+        <v>36054.21349296</v>
       </c>
       <c r="T11" t="n">
-        <v>47072</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>9254</v>
+        <v>30513.03030589</v>
       </c>
       <c r="V11" t="n">
-        <v>6149</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>10712</v>
+        <v>9641.60095815</v>
       </c>
       <c r="X11" t="n">
-        <v>2102</v>
+        <v>2312.86135465</v>
       </c>
       <c r="Y11" t="n">
-        <v>1436</v>
+        <v>1403.32753296</v>
       </c>
       <c r="Z11" t="n">
-        <v>10712</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>2102</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>1436</v>
+        <v>4209.98259888</v>
       </c>
       <c r="AC11" t="n">
-        <v>5356</v>
+        <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>1051</v>
+        <v>3466.28831593</v>
       </c>
       <c r="AE11" t="n">
-        <v>718</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2067,87 +2067,87 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>21,111252;31,20990;41,15916</t>
+          <t>21,100127;31,23089;41,15552</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>21,111252;31,20990;41,15916</t>
+          <t>21,0;31,0;41,46658</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>21,55626;31,10495;41,7958</t>
+          <t>21,0;31,34604;41,0</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>21,12551;31,2368;41,1835</t>
+          <t>21,11296;31,2605;41,1793</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>21,12551;31,2368;41,1835</t>
+          <t>21,0;31,0;41,5380</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>21,6275;31,1184;41,917</t>
+          <t>21,0;31,3905;41,0</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>111252</v>
+        <v>100127.2347306</v>
       </c>
       <c r="O12" t="n">
-        <v>20990</v>
+        <v>23089.49663405</v>
       </c>
       <c r="P12" t="n">
-        <v>15916</v>
+        <v>15552.6709662</v>
       </c>
       <c r="Q12" t="n">
-        <v>111252</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>20990</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>15916</v>
+        <v>46658.0128986</v>
       </c>
       <c r="T12" t="n">
-        <v>55626</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>10495</v>
+        <v>34604.25859181</v>
       </c>
       <c r="V12" t="n">
-        <v>7958</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>12551</v>
+        <v>11296.1986137</v>
       </c>
       <c r="X12" t="n">
-        <v>2368</v>
+        <v>2605.69216985</v>
       </c>
       <c r="Y12" t="n">
-        <v>1835</v>
+        <v>1793.4183486</v>
       </c>
       <c r="Z12" t="n">
-        <v>12551</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>2368</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>1835</v>
+        <v>5380.2550458</v>
       </c>
       <c r="AC12" t="n">
-        <v>6275</v>
+        <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>1184</v>
+        <v>3905.15423897</v>
       </c>
       <c r="AE12" t="n">
-        <v>917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2174,87 +2174,87 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>21,113901;31,21489;41,16428</t>
+          <t>21,102511;31,23638;41,16053</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>21,113901;31,21489;41,16428</t>
+          <t>21,0;31,0;41,48160</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>21,56950;31,10744;41,8214</t>
+          <t>21,0;31,35426;41,0</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>21,12845;31,2423;41,1893</t>
+          <t>21,11560;31,2666;41,1849</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>21,12845;31,2423;41,1893</t>
+          <t>21,0;31,0;41,5549</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>21,6422;31,1211;41,946</t>
+          <t>21,0;31,3996;41,0</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>113901</v>
+        <v>102511.2716523</v>
       </c>
       <c r="O13" t="n">
-        <v>21489</v>
+        <v>23638.0627098</v>
       </c>
       <c r="P13" t="n">
-        <v>16428</v>
+        <v>16053.44724666</v>
       </c>
       <c r="Q13" t="n">
-        <v>113901</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21489</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>16428</v>
+        <v>48160.34173997999</v>
       </c>
       <c r="T13" t="n">
-        <v>56950</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>10744</v>
+        <v>35426.39528196</v>
       </c>
       <c r="V13" t="n">
-        <v>8214</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>12845</v>
+        <v>11560.64524335</v>
       </c>
       <c r="X13" t="n">
-        <v>2423</v>
+        <v>2666.3786226</v>
       </c>
       <c r="Y13" t="n">
-        <v>1893</v>
+        <v>1849.90713498</v>
       </c>
       <c r="Z13" t="n">
-        <v>12845</v>
+        <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>2423</v>
+        <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>1893</v>
+        <v>5549.72140494</v>
       </c>
       <c r="AC13" t="n">
-        <v>6422</v>
+        <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>1211</v>
+        <v>3996.10510452</v>
       </c>
       <c r="AE13" t="n">
-        <v>946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2281,87 +2281,87 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>21,116550;31,21987;41,16941</t>
+          <t>21,104895;31,24185;41,16554</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>21,116550;31,21987;41,16941</t>
+          <t>21,0;31,0;41,49663</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>21,58275;31,10993;41,8470</t>
+          <t>21,0;31,36247;41,0</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>21,13138;31,2479;41,1951</t>
+          <t>21,11825;31,2726;41,1906</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>21,13138;31,2479;41,1951</t>
+          <t>21,0;31,0;41,5719</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>21,6569;31,1239;41,975</t>
+          <t>21,0;31,4086;41,0</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>116550</v>
+        <v>104895.308574</v>
       </c>
       <c r="O14" t="n">
-        <v>21987</v>
+        <v>24185.7410025</v>
       </c>
       <c r="P14" t="n">
-        <v>16941</v>
+        <v>16554.48353946</v>
       </c>
       <c r="Q14" t="n">
-        <v>116550</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>21987</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>16941</v>
+        <v>49663.45061838</v>
       </c>
       <c r="T14" t="n">
-        <v>58275</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>10993</v>
+        <v>36247.2014505</v>
       </c>
       <c r="V14" t="n">
-        <v>8470</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>13138</v>
+        <v>11825.091873</v>
       </c>
       <c r="X14" t="n">
-        <v>2479</v>
+        <v>2726.9705925</v>
       </c>
       <c r="Y14" t="n">
-        <v>1951</v>
+        <v>1906.42441338</v>
       </c>
       <c r="Z14" t="n">
-        <v>13138</v>
+        <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>2479</v>
+        <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>1951</v>
+        <v>5719.27324014</v>
       </c>
       <c r="AC14" t="n">
-        <v>6569</v>
+        <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>1239</v>
+        <v>4086.9143685</v>
       </c>
       <c r="AE14" t="n">
-        <v>975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2388,87 +2388,87 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>21,119199;31,22484;41,17454</t>
+          <t>21,107279;31,24733;41,17055</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>21,119199;31,22484;41,17454</t>
+          <t>21,0;31,0;41,51165</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>21,59599;31,11242;41,8727</t>
+          <t>21,0;31,37068;41,0</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>21,13432;31,2534;41,2008</t>
+          <t>21,12089;31,2787;41,1962</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>21,13432;31,2534;41,2008</t>
+          <t>21,0;31,0;41,5888</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>21,6716;31,1267;41,1004</t>
+          <t>21,0;31,4177;41,0</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>119199</v>
+        <v>107279.3139957</v>
       </c>
       <c r="O15" t="n">
-        <v>22484</v>
+        <v>24733.4192952</v>
       </c>
       <c r="P15" t="n">
-        <v>17454</v>
+        <v>17055.25981992</v>
       </c>
       <c r="Q15" t="n">
-        <v>119199</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>22484</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>17454</v>
+        <v>51165.77945976</v>
       </c>
       <c r="T15" t="n">
-        <v>59599</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>11242</v>
+        <v>37068.00761904</v>
       </c>
       <c r="V15" t="n">
-        <v>8727</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>13432</v>
+        <v>12089.50700265</v>
       </c>
       <c r="X15" t="n">
-        <v>2534</v>
+        <v>2787.5625624</v>
       </c>
       <c r="Y15" t="n">
-        <v>2008</v>
+        <v>1962.91319976</v>
       </c>
       <c r="Z15" t="n">
-        <v>13432</v>
+        <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>2534</v>
+        <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>2008</v>
+        <v>5888.739599279999</v>
       </c>
       <c r="AC15" t="n">
-        <v>6716</v>
+        <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>1267</v>
+        <v>4177.72363248</v>
       </c>
       <c r="AE15" t="n">
-        <v>1004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2495,87 +2495,87 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>21,121848;31,22983;41,17966</t>
+          <t>21,109663;31,25282;41,17556</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>21,121848;31,22983;41,17966</t>
+          <t>21,0;31,0;41,52668</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>21,60924;31,11491;41,8983</t>
+          <t>21,0;31,37890;41,0</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>21,13726;31,2589;41,2066</t>
+          <t>21,12353;31,2848;41,2019</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>21,13726;31,2589;41,2066</t>
+          <t>21,0;31,0;41,6058</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>21,6863;31,1294;41,1033</t>
+          <t>21,0;31,4268;41,0</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>121848</v>
+        <v>109663.3509174</v>
       </c>
       <c r="O16" t="n">
-        <v>22983</v>
+        <v>25282.02387095</v>
       </c>
       <c r="P16" t="n">
-        <v>17966</v>
+        <v>17556.29611272</v>
       </c>
       <c r="Q16" t="n">
-        <v>121848</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>22983</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>17966</v>
+        <v>52668.88833816</v>
       </c>
       <c r="T16" t="n">
-        <v>60924</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>11491</v>
+        <v>37890.20200919</v>
       </c>
       <c r="V16" t="n">
-        <v>8983</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>13726</v>
+        <v>12353.9536323</v>
       </c>
       <c r="X16" t="n">
-        <v>2589</v>
+        <v>2848.28751515</v>
       </c>
       <c r="Y16" t="n">
-        <v>2066</v>
+        <v>2019.43047816</v>
       </c>
       <c r="Z16" t="n">
-        <v>13726</v>
+        <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>2589</v>
+        <v>0</v>
       </c>
       <c r="AB16" t="n">
-        <v>2066</v>
+        <v>6058.29143448</v>
       </c>
       <c r="AC16" t="n">
-        <v>6863</v>
+        <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>1294</v>
+        <v>4268.73219803</v>
       </c>
       <c r="AE16" t="n">
-        <v>1033</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2602,87 +2602,87 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>21,124497;31,23481;41,18479</t>
+          <t>21,112047;31,25829;41,18057</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>21,124497;31,23481;41,18479</t>
+          <t>21,0;31,0;41,54171</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>21,62248;31,11740;41,9239</t>
+          <t>21,0;31,38711;41,0</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>21,14020;31,2644;41,2124</t>
+          <t>21,12618;31,2908;41,2075</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>21,14020;31,2644;41,2124</t>
+          <t>21,0;31,0;41,6227</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>21,7010;31,1322;41,1062</t>
+          <t>21,0;31,4359;41,0</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>124497</v>
+        <v>112047.3878391</v>
       </c>
       <c r="O17" t="n">
-        <v>23481</v>
+        <v>25829.70216365</v>
       </c>
       <c r="P17" t="n">
-        <v>18479</v>
+        <v>18057.07239318</v>
       </c>
       <c r="Q17" t="n">
-        <v>124497</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>23481</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>18479</v>
+        <v>54171.21717954</v>
       </c>
       <c r="T17" t="n">
-        <v>62248</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>11740</v>
+        <v>38711.00817773</v>
       </c>
       <c r="V17" t="n">
-        <v>9239</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>14020</v>
+        <v>12618.40026195</v>
       </c>
       <c r="X17" t="n">
-        <v>2644</v>
+        <v>2908.87948505</v>
       </c>
       <c r="Y17" t="n">
-        <v>2124</v>
+        <v>2075.91926454</v>
       </c>
       <c r="Z17" t="n">
-        <v>14020</v>
+        <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>2644</v>
+        <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>2124</v>
+        <v>6227.75779362</v>
       </c>
       <c r="AC17" t="n">
-        <v>7010</v>
+        <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>1322</v>
+        <v>4359.54146201</v>
       </c>
       <c r="AE17" t="n">
-        <v>1062</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5107,141 +5107,141 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>7340</v>
+        <v>6274</v>
       </c>
       <c r="C2" t="n">
-        <v>1505</v>
+        <v>1446</v>
       </c>
       <c r="D2" t="n">
-        <v>776</v>
+        <v>1011</v>
       </c>
       <c r="E2" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F2" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G2" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H2" t="n">
-        <v>7340</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1505</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>776</v>
+        <v>3548</v>
       </c>
       <c r="K2" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="N2" t="n">
-        <v>3670</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>752</v>
+        <v>1700</v>
       </c>
       <c r="P2" t="n">
-        <v>388</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="S2" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>5003</v>
+        <v>3232</v>
       </c>
       <c r="U2" t="n">
-        <v>874</v>
+        <v>801</v>
       </c>
       <c r="V2" t="n">
-        <v>727</v>
+        <v>406</v>
       </c>
       <c r="W2" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="X2" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="Y2" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Z2" t="n">
-        <v>5003</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>874</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>727</v>
+        <v>1424</v>
       </c>
       <c r="AC2" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="AF2" t="n">
-        <v>2501</v>
+        <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>437</v>
+        <v>943</v>
       </c>
       <c r="AH2" t="n">
-        <v>363</v>
+        <v>0</v>
       </c>
       <c r="AI2" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="AK2" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>21,7340;31,1505;41,776;22,40;32,40;42,40</t>
+          <t>21,6274;31,1446;41,1011;22,36;32,44;42,39</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>21,7340;31,1505;41,776;22,40;32,40;42,40</t>
+          <t>21,0;31,0;41,3548;22,0;32,0;42,117</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>21,3670;31,752;41,388;22,20;32,20;42,20</t>
+          <t>21,0;31,1700;41,0;22,0;32,66;42,0</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>21,5003;31,874;41,727;22,35;32,35;42,35</t>
+          <t>21,3232;31,801;41,406;22,31;32,38;42,34</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>21,5003;31,874;41,727;22,35;32,35;42,35</t>
+          <t>21,0;31,0;41,1424;22,0;32,0;42,102</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>21,2501;31,437;41,363;22,17;32,17;42,17</t>
+          <t>21,0;31,943;41,0;22,0;32,56;42,0</t>
         </is>
       </c>
     </row>
@@ -5250,141 +5250,141 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>14750</v>
+        <v>12549</v>
       </c>
       <c r="C3" t="n">
-        <v>2896</v>
+        <v>2892</v>
       </c>
       <c r="D3" t="n">
-        <v>1663</v>
+        <v>2023</v>
       </c>
       <c r="E3" t="n">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F3" t="n">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G3" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H3" t="n">
-        <v>14750</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2896</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1663</v>
+        <v>7097</v>
       </c>
       <c r="K3" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>80</v>
+        <v>234</v>
       </c>
       <c r="N3" t="n">
-        <v>7375</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1448</v>
+        <v>3401</v>
       </c>
       <c r="P3" t="n">
-        <v>831</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>40</v>
+        <v>132</v>
       </c>
       <c r="S3" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>5241</v>
+        <v>3718</v>
       </c>
       <c r="U3" t="n">
-        <v>915</v>
+        <v>891</v>
       </c>
       <c r="V3" t="n">
-        <v>768</v>
+        <v>504</v>
       </c>
       <c r="W3" t="n">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="X3" t="n">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="Y3" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Z3" t="n">
-        <v>5241</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>915</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>768</v>
+        <v>1768</v>
       </c>
       <c r="AC3" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>70</v>
+        <v>205</v>
       </c>
       <c r="AF3" t="n">
-        <v>2620</v>
+        <v>0</v>
       </c>
       <c r="AG3" t="n">
-        <v>457</v>
+        <v>1048</v>
       </c>
       <c r="AH3" t="n">
-        <v>384</v>
+        <v>0</v>
       </c>
       <c r="AI3" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="AK3" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>21,14750;31,2896;41,1663;22,80;32,80;42,80</t>
+          <t>21,12549;31,2892;41,2023;22,72;32,88;42,78</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>21,14750;31,2896;41,1663;22,80;32,80;42,80</t>
+          <t>21,0;31,0;41,7097;22,0;32,0;42,234</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>21,7375;31,1448;41,831;22,40;32,40;42,40</t>
+          <t>21,0;31,3401;41,0;22,0;32,132;42,0</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>21,5241;31,915;41,768;22,70;32,70;42,70</t>
+          <t>21,3718;31,891;41,504;22,63;32,77;42,68</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>21,5241;31,915;41,768;22,70;32,70;42,70</t>
+          <t>21,0;31,0;41,1768;22,0;32,0;42,205</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>21,2620;31,457;41,384;22,35;32,35;42,35</t>
+          <t>21,0;31,1048;41,0;22,0;32,115;42,0</t>
         </is>
       </c>
     </row>
@@ -5393,141 +5393,141 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>21987</v>
+        <v>18823</v>
       </c>
       <c r="C4" t="n">
-        <v>4154</v>
+        <v>4339</v>
       </c>
       <c r="D4" t="n">
-        <v>2696</v>
+        <v>3035</v>
       </c>
       <c r="E4" t="n">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="F4" t="n">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="G4" t="n">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H4" t="n">
-        <v>21987</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4154</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2696</v>
+        <v>10646</v>
       </c>
       <c r="K4" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>120</v>
+        <v>352</v>
       </c>
       <c r="N4" t="n">
-        <v>10993</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>2077</v>
+        <v>5102</v>
       </c>
       <c r="P4" t="n">
-        <v>1348</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>60</v>
+        <v>198</v>
       </c>
       <c r="S4" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>5490</v>
+        <v>4541</v>
       </c>
       <c r="U4" t="n">
-        <v>959</v>
+        <v>1047</v>
       </c>
       <c r="V4" t="n">
-        <v>812</v>
+        <v>674</v>
       </c>
       <c r="W4" t="n">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="X4" t="n">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="Y4" t="n">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="Z4" t="n">
-        <v>5490</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>959</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>812</v>
+        <v>2366</v>
       </c>
       <c r="AC4" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>105</v>
+        <v>308</v>
       </c>
       <c r="AF4" t="n">
-        <v>2745</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>479</v>
+        <v>1232</v>
       </c>
       <c r="AH4" t="n">
-        <v>406</v>
+        <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>52</v>
+        <v>171</v>
       </c>
       <c r="AK4" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>21,21987;31,4154;41,2696;22,120;32,120;42,120</t>
+          <t>21,18823;31,4339;41,3035;22,108;32,132;42,117</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>21,21987;31,4154;41,2696;22,120;32,120;42,120</t>
+          <t>21,0;31,0;41,10646;22,0;32,0;42,352</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>21,10993;31,2077;41,1348;22,60;32,60;42,60</t>
+          <t>21,0;31,5102;41,0;22,0;32,198;42,0</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>21,5490;31,959;41,812;22,105;32,105;42,105</t>
+          <t>21,4541;31,1047;41,674;22,94;32,115;42,102</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>21,5490;31,959;41,812;22,105;32,105;42,105</t>
+          <t>21,0;31,0;41,2366;22,0;32,0;42,308</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>21,2745;31,479;41,406;22,52;32,52;42,52</t>
+          <t>21,0;31,1232;41,0;22,0;32,171;42,0</t>
         </is>
       </c>
     </row>
@@ -5536,141 +5536,141 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>29238</v>
+        <v>25098</v>
       </c>
       <c r="C5" t="n">
-        <v>5520</v>
+        <v>5785</v>
       </c>
       <c r="D5" t="n">
-        <v>3629</v>
+        <v>4047</v>
       </c>
       <c r="E5" t="n">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="F5" t="n">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="G5" t="n">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="H5" t="n">
-        <v>29238</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>5520</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>3629</v>
+        <v>14195</v>
       </c>
       <c r="K5" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>160</v>
+        <v>469</v>
       </c>
       <c r="N5" t="n">
-        <v>14619</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>2760</v>
+        <v>6803</v>
       </c>
       <c r="P5" t="n">
-        <v>1814</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>80</v>
+        <v>264</v>
       </c>
       <c r="S5" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>5881</v>
+        <v>4868</v>
       </c>
       <c r="U5" t="n">
-        <v>1026</v>
+        <v>1122</v>
       </c>
       <c r="V5" t="n">
-        <v>883</v>
+        <v>734</v>
       </c>
       <c r="W5" t="n">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="X5" t="n">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="Y5" t="n">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="Z5" t="n">
-        <v>5881</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>1026</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>883</v>
+        <v>2576</v>
       </c>
       <c r="AC5" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>140</v>
+        <v>410</v>
       </c>
       <c r="AF5" t="n">
-        <v>2940</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>513</v>
+        <v>1320</v>
       </c>
       <c r="AH5" t="n">
-        <v>441</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>70</v>
+        <v>231</v>
       </c>
       <c r="AK5" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>21,29238;31,5520;41,3629;22,160;32,160;42,160</t>
+          <t>21,25098;31,5785;41,4047;22,144;32,176;42,156</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>21,29238;31,5520;41,3629;22,160;32,160;42,160</t>
+          <t>21,0;31,0;41,14195;22,0;32,0;42,469</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>21,14619;31,2760;41,1814;22,80;32,80;42,80</t>
+          <t>21,0;31,6803;41,0;22,0;32,264;42,0</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>21,5881;31,1026;41,883;22,140;32,140;42,140</t>
+          <t>21,4868;31,1122;41,734;22,126;32,154;42,136</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>21,5881;31,1026;41,883;22,140;32,140;42,140</t>
+          <t>21,0;31,0;41,2576;22,0;32,0;42,410</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>21,2940;31,513;41,441;22,70;32,70;42,70</t>
+          <t>21,0;31,1320;41,0;22,0;32,231;42,0</t>
         </is>
       </c>
     </row>
@@ -5679,141 +5679,141 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>36457</v>
+        <v>31373</v>
       </c>
       <c r="C6" t="n">
-        <v>6880</v>
+        <v>7232</v>
       </c>
       <c r="D6" t="n">
-        <v>4579</v>
+        <v>5059</v>
       </c>
       <c r="E6" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="F6" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="G6" t="n">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H6" t="n">
-        <v>36457</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>6880</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>4579</v>
+        <v>17744</v>
       </c>
       <c r="K6" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>586</v>
       </c>
       <c r="N6" t="n">
-        <v>18228</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>3440</v>
+        <v>8504</v>
       </c>
       <c r="P6" t="n">
-        <v>2289</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100</v>
+        <v>330</v>
       </c>
       <c r="S6" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>6161</v>
+        <v>5215</v>
       </c>
       <c r="U6" t="n">
-        <v>1075</v>
+        <v>1202</v>
       </c>
       <c r="V6" t="n">
-        <v>932</v>
+        <v>798</v>
       </c>
       <c r="W6" t="n">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="X6" t="n">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="Y6" t="n">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="Z6" t="n">
-        <v>6161</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>1075</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>932</v>
+        <v>2802</v>
       </c>
       <c r="AC6" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>175</v>
+        <v>513</v>
       </c>
       <c r="AF6" t="n">
-        <v>3080</v>
+        <v>0</v>
       </c>
       <c r="AG6" t="n">
-        <v>537</v>
+        <v>1414</v>
       </c>
       <c r="AH6" t="n">
-        <v>466</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>87</v>
+        <v>287</v>
       </c>
       <c r="AK6" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>21,36457;31,6880;41,4579;22,200;32,200;42,200</t>
+          <t>21,31373;31,7232;41,5059;22,180;32,220;42,195</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>21,36457;31,6880;41,4579;22,200;32,200;42,200</t>
+          <t>21,0;31,0;41,17744;22,0;32,0;42,586</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>21,18228;31,3440;41,2289;22,100;32,100;42,100</t>
+          <t>21,0;31,8504;41,0;22,0;32,330;42,0</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>21,6161;31,1075;41,932;22,175;32,175;42,175</t>
+          <t>21,5215;31,1202;41,798;22,157;32,192;42,171</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>21,6161;31,1075;41,932;22,175;32,175;42,175</t>
+          <t>21,0;31,0;41,2802;22,0;32,0;42,513</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>21,3080;31,537;41,466;22,87;32,87;42,87</t>
+          <t>21,0;31,1414;41,0;22,0;32,287;42,0</t>
         </is>
       </c>
     </row>
@@ -5822,141 +5822,141 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>42495</v>
+        <v>37647</v>
       </c>
       <c r="C7" t="n">
-        <v>8017</v>
+        <v>8678</v>
       </c>
       <c r="D7" t="n">
-        <v>5937</v>
+        <v>6071</v>
       </c>
       <c r="E7" t="n">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="F7" t="n">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="G7" t="n">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="H7" t="n">
-        <v>42495</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>8017</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>5937</v>
+        <v>21293</v>
       </c>
       <c r="K7" t="n">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>240</v>
+        <v>704</v>
       </c>
       <c r="N7" t="n">
-        <v>21247</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>4008</v>
+        <v>10205</v>
       </c>
       <c r="P7" t="n">
-        <v>2968</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>120</v>
+        <v>396</v>
       </c>
       <c r="S7" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>6454</v>
+        <v>5585</v>
       </c>
       <c r="U7" t="n">
-        <v>1126</v>
+        <v>1287</v>
       </c>
       <c r="V7" t="n">
-        <v>984</v>
+        <v>868</v>
       </c>
       <c r="W7" t="n">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="X7" t="n">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="Y7" t="n">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="Z7" t="n">
-        <v>6454</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>1126</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>984</v>
+        <v>3044</v>
       </c>
       <c r="AC7" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>210</v>
+        <v>616</v>
       </c>
       <c r="AF7" t="n">
-        <v>3227</v>
+        <v>0</v>
       </c>
       <c r="AG7" t="n">
-        <v>563</v>
+        <v>1514</v>
       </c>
       <c r="AH7" t="n">
-        <v>492</v>
+        <v>0</v>
       </c>
       <c r="AI7" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>105</v>
+        <v>346</v>
       </c>
       <c r="AK7" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>21,42495;31,8017;41,5937;22,240;32,240;42,240</t>
+          <t>21,37647;31,8678;41,6071;22,216;32,264;42,234</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>21,42495;31,8017;41,5937;22,240;32,240;42,240</t>
+          <t>21,0;31,0;41,21293;22,0;32,0;42,704</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>21,21247;31,4008;41,2968;22,120;32,120;42,120</t>
+          <t>21,0;31,10205;41,0;22,0;32,396;42,0</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>21,6454;31,1126;41,984;22,210;32,210;42,210</t>
+          <t>21,5585;31,1287;41,868;22,189;32,231;42,205</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>21,6454;31,1126;41,984;22,210;32,210;42,210</t>
+          <t>21,0;31,0;41,3044;22,0;32,0;42,616</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>21,3227;31,563;41,492;22,105;32,105;42,105</t>
+          <t>21,0;31,1514;41,0;22,0;32,346;42,0</t>
         </is>
       </c>
     </row>
@@ -5965,141 +5965,141 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>48513</v>
+        <v>43922</v>
       </c>
       <c r="C8" t="n">
-        <v>9151</v>
+        <v>10124</v>
       </c>
       <c r="D8" t="n">
-        <v>7304</v>
+        <v>7083</v>
       </c>
       <c r="E8" t="n">
-        <v>280</v>
+        <v>252</v>
       </c>
       <c r="F8" t="n">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="G8" t="n">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="H8" t="n">
-        <v>48513</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>9151</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>7304</v>
+        <v>24842</v>
       </c>
       <c r="K8" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>280</v>
+        <v>821</v>
       </c>
       <c r="N8" t="n">
-        <v>24256</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>4575</v>
+        <v>11906</v>
       </c>
       <c r="P8" t="n">
-        <v>3652</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>140</v>
+        <v>462</v>
       </c>
       <c r="S8" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>6762</v>
+        <v>5978</v>
       </c>
       <c r="U8" t="n">
-        <v>1179</v>
+        <v>1378</v>
       </c>
       <c r="V8" t="n">
-        <v>1038</v>
+        <v>942</v>
       </c>
       <c r="W8" t="n">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="X8" t="n">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="Y8" t="n">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="Z8" t="n">
-        <v>6762</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>1179</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>1038</v>
+        <v>3304</v>
       </c>
       <c r="AC8" t="n">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>245</v>
+        <v>718</v>
       </c>
       <c r="AF8" t="n">
-        <v>3381</v>
+        <v>0</v>
       </c>
       <c r="AG8" t="n">
-        <v>589</v>
+        <v>1620</v>
       </c>
       <c r="AH8" t="n">
-        <v>519</v>
+        <v>0</v>
       </c>
       <c r="AI8" t="n">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>122</v>
+        <v>402</v>
       </c>
       <c r="AK8" t="n">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>21,48513;31,9151;41,7304;22,280;32,280;42,280</t>
+          <t>21,43922;31,10124;41,7083;22,252;32,308;42,273</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>21,48513;31,9151;41,7304;22,280;32,280;42,280</t>
+          <t>21,0;31,0;41,24842;22,0;32,0;42,821</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>21,24256;31,4575;41,3652;22,140;32,140;42,140</t>
+          <t>21,0;31,11906;41,0;22,0;32,462;42,0</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>21,6762;31,1179;41,1038;22,245;32,245;42,245</t>
+          <t>21,5978;31,1378;41,942;22,220;32,269;42,239</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>21,6762;31,1179;41,1038;22,245;32,245;42,245</t>
+          <t>21,0;31,0;41,3304;22,0;32,0;42,718</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>21,3381;31,589;41,519;22,122;32,122;42,122</t>
+          <t>21,0;31,1620;41,0;22,0;32,402;42,0</t>
         </is>
       </c>
     </row>
@@ -6108,141 +6108,141 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>54988</v>
+        <v>50196</v>
       </c>
       <c r="C9" t="n">
-        <v>10371</v>
+        <v>11571</v>
       </c>
       <c r="D9" t="n">
-        <v>8513</v>
+        <v>8095</v>
       </c>
       <c r="E9" t="n">
-        <v>315</v>
+        <v>283</v>
       </c>
       <c r="F9" t="n">
-        <v>315</v>
+        <v>346</v>
       </c>
       <c r="G9" t="n">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="H9" t="n">
-        <v>54988</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>10371</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>8513</v>
+        <v>28391</v>
       </c>
       <c r="K9" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>315</v>
+        <v>924</v>
       </c>
       <c r="N9" t="n">
-        <v>27494</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>5185</v>
+        <v>13607</v>
       </c>
       <c r="P9" t="n">
-        <v>4256</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>157</v>
+        <v>518</v>
       </c>
       <c r="S9" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>7353</v>
+        <v>6640</v>
       </c>
       <c r="U9" t="n">
-        <v>1283</v>
+        <v>1530</v>
       </c>
       <c r="V9" t="n">
-        <v>1144</v>
+        <v>1067</v>
       </c>
       <c r="W9" t="n">
-        <v>280</v>
+        <v>252</v>
       </c>
       <c r="X9" t="n">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="Y9" t="n">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="Z9" t="n">
-        <v>7353</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>1283</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>1144</v>
+        <v>3743</v>
       </c>
       <c r="AC9" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>280</v>
+        <v>821</v>
       </c>
       <c r="AF9" t="n">
-        <v>3676</v>
+        <v>0</v>
       </c>
       <c r="AG9" t="n">
-        <v>641</v>
+        <v>1800</v>
       </c>
       <c r="AH9" t="n">
-        <v>572</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>140</v>
+        <v>462</v>
       </c>
       <c r="AK9" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>21,54988;31,10371;41,8513;22,315;32,315;42,315</t>
+          <t>21,50196;31,11571;41,8095;22,283;32,346;42,308</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>21,54988;31,10371;41,8513;22,315;32,315;42,315</t>
+          <t>21,0;31,0;41,28391;22,0;32,0;42,924</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>21,27494;31,5185;41,4256;22,157;32,157;42,157</t>
+          <t>21,0;31,13607;41,0;22,0;32,518;42,0</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>21,7353;31,1283;41,1144;22,280;32,280;42,280</t>
+          <t>21,6640;31,1530;41,1067;22,252;32,308;42,273</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>21,7353;31,1283;41,1144;22,280;32,280;42,280</t>
+          <t>21,0;31,0;41,3743;22,0;32,0;42,821</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>21,3676;31,641;41,572;22,140;32,140;42,140</t>
+          <t>21,0;31,1800;41,0;22,0;32,462;42,0</t>
         </is>
       </c>
     </row>
@@ -6251,141 +6251,141 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>62413</v>
+        <v>56471</v>
       </c>
       <c r="C10" t="n">
-        <v>11771</v>
+        <v>13017</v>
       </c>
       <c r="D10" t="n">
-        <v>9377</v>
+        <v>9107</v>
       </c>
       <c r="E10" t="n">
-        <v>335</v>
+        <v>301</v>
       </c>
       <c r="F10" t="n">
-        <v>335</v>
+        <v>368</v>
       </c>
       <c r="G10" t="n">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="H10" t="n">
-        <v>62413</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>11771</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>9377</v>
+        <v>31940</v>
       </c>
       <c r="K10" t="n">
-        <v>335</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>335</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>335</v>
+        <v>982</v>
       </c>
       <c r="N10" t="n">
-        <v>31206</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>5885</v>
+        <v>15308</v>
       </c>
       <c r="P10" t="n">
-        <v>4688</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>167</v>
+        <v>551</v>
       </c>
       <c r="S10" t="n">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>7961</v>
+        <v>7189</v>
       </c>
       <c r="U10" t="n">
-        <v>1389</v>
+        <v>1657</v>
       </c>
       <c r="V10" t="n">
-        <v>1254</v>
+        <v>1170</v>
       </c>
       <c r="W10" t="n">
-        <v>315</v>
+        <v>283</v>
       </c>
       <c r="X10" t="n">
-        <v>315</v>
+        <v>346</v>
       </c>
       <c r="Y10" t="n">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="Z10" t="n">
-        <v>7961</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>1389</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>1254</v>
+        <v>4104</v>
       </c>
       <c r="AC10" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>315</v>
+        <v>924</v>
       </c>
       <c r="AF10" t="n">
-        <v>3980</v>
+        <v>0</v>
       </c>
       <c r="AG10" t="n">
-        <v>694</v>
+        <v>1949</v>
       </c>
       <c r="AH10" t="n">
-        <v>627</v>
+        <v>0</v>
       </c>
       <c r="AI10" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>157</v>
+        <v>518</v>
       </c>
       <c r="AK10" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>21,62413;31,11771;41,9377;22,335;32,335;42,335</t>
+          <t>21,56471;31,13017;41,9107;22,301;32,368;42,327</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>21,62413;31,11771;41,9377;22,335;32,335;42,335</t>
+          <t>21,0;31,0;41,31940;22,0;32,0;42,982</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>21,31206;31,5885;41,4688;22,167;32,167;42,167</t>
+          <t>21,0;31,15308;41,0;22,0;32,551;42,0</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>21,7961;31,1389;41,1254;22,315;32,315;42,315</t>
+          <t>21,7189;31,1657;41,1170;22,283;32,346;42,308</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>21,7961;31,1389;41,1254;22,315;32,315;42,315</t>
+          <t>21,0;31,0;41,4104;22,0;32,0;42,924</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>21,3980;31,694;41,627;22,157;32,157;42,157</t>
+          <t>21,0;31,1949;41,0;22,0;32,518;42,0</t>
         </is>
       </c>
     </row>
@@ -6394,141 +6394,141 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>69718</v>
+        <v>62746</v>
       </c>
       <c r="C11" t="n">
-        <v>13149</v>
+        <v>14464</v>
       </c>
       <c r="D11" t="n">
-        <v>10348</v>
+        <v>10119</v>
       </c>
       <c r="E11" t="n">
-        <v>350</v>
+        <v>315</v>
       </c>
       <c r="F11" t="n">
-        <v>350</v>
+        <v>385</v>
       </c>
       <c r="G11" t="n">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="H11" t="n">
-        <v>69718</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>13149</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>10348</v>
+        <v>35489</v>
       </c>
       <c r="K11" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>350</v>
+        <v>1026</v>
       </c>
       <c r="N11" t="n">
-        <v>34859</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>6574</v>
+        <v>17009</v>
       </c>
       <c r="P11" t="n">
-        <v>5174</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>175</v>
+        <v>577</v>
       </c>
       <c r="S11" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>8582</v>
+        <v>7751</v>
       </c>
       <c r="U11" t="n">
-        <v>1497</v>
+        <v>1786</v>
       </c>
       <c r="V11" t="n">
-        <v>1368</v>
+        <v>1276</v>
       </c>
       <c r="W11" t="n">
-        <v>350</v>
+        <v>315</v>
       </c>
       <c r="X11" t="n">
-        <v>350</v>
+        <v>385</v>
       </c>
       <c r="Y11" t="n">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="Z11" t="n">
-        <v>8582</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>1497</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>1368</v>
+        <v>4475</v>
       </c>
       <c r="AC11" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>350</v>
+        <v>1026</v>
       </c>
       <c r="AF11" t="n">
-        <v>4291</v>
+        <v>0</v>
       </c>
       <c r="AG11" t="n">
-        <v>748</v>
+        <v>2101</v>
       </c>
       <c r="AH11" t="n">
-        <v>684</v>
+        <v>0</v>
       </c>
       <c r="AI11" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>175</v>
+        <v>577</v>
       </c>
       <c r="AK11" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>21,69718;31,13149;41,10348;22,350;32,350;42,350</t>
+          <t>21,62746;31,14464;41,10119;22,315;32,385;42,342</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>21,69718;31,13149;41,10348;22,350;32,350;42,350</t>
+          <t>21,0;31,0;41,35489;22,0;32,0;42,1026</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>21,34859;31,6574;41,5174;22,175;32,175;42,175</t>
+          <t>21,0;31,17009;41,0;22,0;32,577;42,0</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>21,8582;31,1497;41,1368;22,350;32,350;42,350</t>
+          <t>21,7751;31,1786;41,1276;22,315;32,385;42,342</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>21,8582;31,1497;41,1368;22,350;32,350;42,350</t>
+          <t>21,0;31,0;41,4475;22,0;32,0;42,1026</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>21,4291;31,748;41,684;22,175;32,175;42,175</t>
+          <t>21,0;31,2101;41,0;22,0;32,577;42,0</t>
         </is>
       </c>
     </row>
@@ -6839,13 +6839,13 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>5149269.9365138</v>
+        <v>5324063.3243529</v>
       </c>
       <c r="U2" t="n">
-        <v>913025.1229076</v>
+        <v>953318.82507125</v>
       </c>
       <c r="V2" t="n">
-        <v>742867.7034594</v>
+        <v>771043.77585258</v>
       </c>
       <c r="W2" t="n">
         <v>4740</v>
@@ -6886,8 +6886,16 @@
       <c r="AI2" t="n">
         <v>0</v>
       </c>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,89660</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>21,0;31,55720;41,0</t>
+        </is>
+      </c>
       <c r="AL2" t="n">
         <v>11223015.574385</v>
       </c>
@@ -6907,10 +6915,10 @@
         <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>0</v>
+        <v>614832.34902907</v>
       </c>
       <c r="AS2" t="n">
-        <v>15736654.07946779</v>
+        <v>16351486.42849686</v>
       </c>
     </row>
     <row r="3">
@@ -6974,13 +6982,13 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>648208.8926601</v>
+        <v>668578.29292205</v>
       </c>
       <c r="U3" t="n">
-        <v>134234.1699012</v>
+        <v>138929.04938625</v>
       </c>
       <c r="V3" t="n">
-        <v>97772.48092820001</v>
+        <v>101124.40019274</v>
       </c>
       <c r="W3" t="n">
         <v>4740</v>
@@ -7021,8 +7029,16 @@
       <c r="AI3" t="n">
         <v>0</v>
       </c>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,10702</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>21,0;31,6460;41,0</t>
+        </is>
+      </c>
       <c r="AL3" t="n">
         <v>1271762.297045</v>
       </c>
@@ -7042,10 +7058,10 @@
         <v>0</v>
       </c>
       <c r="AR3" t="n">
-        <v>0</v>
+        <v>72037.60447990001</v>
       </c>
       <c r="AS3" t="n">
-        <v>2152637.93031553</v>
+        <v>2224675.53479543</v>
       </c>
     </row>
     <row r="4">
@@ -7514,13 +7530,13 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>54547.7508</v>
+        <v>60958.73710288</v>
       </c>
       <c r="U7" t="n">
-        <v>10576.75</v>
+        <v>12056.7389</v>
       </c>
       <c r="V7" t="n">
-        <v>5446.004</v>
+        <v>6472.7600156</v>
       </c>
       <c r="W7" t="n">
         <v>1380</v>
@@ -7561,8 +7577,16 @@
       <c r="AI7" t="n">
         <v>0</v>
       </c>
-      <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,3595</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>21,0;31,1750;41,0</t>
+        </is>
+      </c>
       <c r="AL7" t="n">
         <v>115407.5488</v>
       </c>
@@ -7582,10 +7606,10 @@
         <v>0</v>
       </c>
       <c r="AR7" t="n">
-        <v>0</v>
+        <v>22526.75680258</v>
       </c>
       <c r="AS7" t="n">
-        <v>163959.8488</v>
+        <v>186486.60560258</v>
       </c>
     </row>
     <row r="8">
@@ -7649,13 +7673,13 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>54814.1130556</v>
+        <v>67637.08566136</v>
       </c>
       <c r="U8" t="n">
-        <v>10607.649</v>
+        <v>13567.6268</v>
       </c>
       <c r="V8" t="n">
-        <v>5470.244024</v>
+        <v>7524.7560552</v>
       </c>
       <c r="W8" t="n">
         <v>1380</v>
@@ -7696,8 +7720,16 @@
       <c r="AI8" t="n">
         <v>0</v>
       </c>
-      <c r="AJ8" t="inlineStr"/>
-      <c r="AK8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,7191</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>21,0;31,3502;41,0</t>
+        </is>
+      </c>
       <c r="AL8" t="n">
         <v>115407.5488</v>
       </c>
@@ -7717,10 +7749,10 @@
         <v>0</v>
       </c>
       <c r="AR8" t="n">
-        <v>0</v>
+        <v>45060.26360516001</v>
       </c>
       <c r="AS8" t="n">
-        <v>164578.7942936</v>
+        <v>209639.05789876</v>
       </c>
     </row>
     <row r="9">
@@ -7919,13 +7951,13 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>231579.0322268</v>
+        <v>238474.90642344</v>
       </c>
       <c r="U10" t="n">
-        <v>42874.267264</v>
+        <v>44463.76365440001</v>
       </c>
       <c r="V10" t="n">
-        <v>26606.258406</v>
+        <v>27700.6907199</v>
       </c>
       <c r="W10" t="n">
         <v>3620</v>
@@ -7966,8 +7998,16 @@
       <c r="AI10" t="n">
         <v>0</v>
       </c>
-      <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,3798</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>21,0;31,1915;41,0</t>
+        </is>
+      </c>
       <c r="AL10" t="n">
         <v>521605.44355</v>
       </c>
@@ -7987,10 +8027,10 @@
         <v>0</v>
       </c>
       <c r="AR10" t="n">
-        <v>0</v>
+        <v>24156.385095325</v>
       </c>
       <c r="AS10" t="n">
-        <v>693219.4621828999</v>
+        <v>717375.8472782251</v>
       </c>
     </row>
     <row r="11">
@@ -8054,13 +8094,13 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>243671.0304948</v>
+        <v>278153.401478</v>
       </c>
       <c r="U11" t="n">
-        <v>44178.779904</v>
+        <v>52128.261856</v>
       </c>
       <c r="V11" t="n">
-        <v>27889.832466</v>
+        <v>33365.9940355</v>
       </c>
       <c r="W11" t="n">
         <v>3620</v>
@@ -8101,8 +8141,16 @@
       <c r="AI11" t="n">
         <v>0</v>
       </c>
-      <c r="AJ11" t="inlineStr"/>
-      <c r="AK11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,18997</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>21,0;31,9580;41,0</t>
+        </is>
+      </c>
       <c r="AL11" t="n">
         <v>521605.44355</v>
       </c>
@@ -8122,10 +8170,10 @@
         <v>0</v>
       </c>
       <c r="AR11" t="n">
-        <v>0</v>
+        <v>120821.725476625</v>
       </c>
       <c r="AS11" t="n">
-        <v>721905.6485119</v>
+        <v>842727.373988525</v>
       </c>
     </row>
     <row r="12">
@@ -8189,13 +8237,13 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>255763.0287628</v>
+        <v>290245.399746</v>
       </c>
       <c r="U12" t="n">
-        <v>45483.292544</v>
+        <v>53432.774496</v>
       </c>
       <c r="V12" t="n">
-        <v>29173.406526</v>
+        <v>34649.5680955</v>
       </c>
       <c r="W12" t="n">
         <v>3620</v>
@@ -8236,8 +8284,16 @@
       <c r="AI12" t="n">
         <v>0</v>
       </c>
-      <c r="AJ12" t="inlineStr"/>
-      <c r="AK12" t="inlineStr"/>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,18997</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>21,0;31,9580;41,0</t>
+        </is>
+      </c>
       <c r="AL12" t="n">
         <v>521605.44355</v>
       </c>
@@ -8257,10 +8313,10 @@
         <v>0</v>
       </c>
       <c r="AR12" t="n">
-        <v>0</v>
+        <v>120821.725476625</v>
       </c>
       <c r="AS12" t="n">
-        <v>750591.8348409</v>
+        <v>871413.5603175251</v>
       </c>
     </row>
     <row r="13">
@@ -8324,13 +8380,13 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>267855.0270308</v>
+        <v>336042.4262514</v>
       </c>
       <c r="U13" t="n">
-        <v>46787.805184</v>
+        <v>62507.3986</v>
       </c>
       <c r="V13" t="n">
-        <v>30456.980586</v>
+        <v>41307.6178002</v>
       </c>
       <c r="W13" t="n">
         <v>3620</v>
@@ -8371,8 +8427,16 @@
       <c r="AI13" t="n">
         <v>0</v>
       </c>
-      <c r="AJ13" t="inlineStr"/>
-      <c r="AK13" t="inlineStr"/>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,37683</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>21,0;31,18890;41,0</t>
+        </is>
+      </c>
       <c r="AL13" t="n">
         <v>521605.44355</v>
       </c>
@@ -8392,10 +8456,10 @@
         <v>0</v>
       </c>
       <c r="AR13" t="n">
-        <v>0</v>
+        <v>239043.75777265</v>
       </c>
       <c r="AS13" t="n">
-        <v>779278.0211699</v>
+        <v>1018321.77894255</v>
       </c>
     </row>
     <row r="14">
@@ -8459,13 +8523,13 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>267855.0270308</v>
+        <v>302337.398014</v>
       </c>
       <c r="U14" t="n">
-        <v>46787.805184</v>
+        <v>54737.287136</v>
       </c>
       <c r="V14" t="n">
-        <v>30456.980586</v>
+        <v>35933.1421555</v>
       </c>
       <c r="W14" t="n">
         <v>3540</v>
@@ -8506,8 +8570,16 @@
       <c r="AI14" t="n">
         <v>0</v>
       </c>
-      <c r="AJ14" t="inlineStr"/>
-      <c r="AK14" t="inlineStr"/>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,18997</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>21,0;31,9580;41,0</t>
+        </is>
+      </c>
       <c r="AL14" t="n">
         <v>521605.44355</v>
       </c>
@@ -8527,10 +8599,10 @@
         <v>0</v>
       </c>
       <c r="AR14" t="n">
-        <v>0</v>
+        <v>120821.725476625</v>
       </c>
       <c r="AS14" t="n">
-        <v>779095.0211699</v>
+        <v>899916.7466465251</v>
       </c>
     </row>
     <row r="15">
@@ -8594,13 +8666,13 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>401009.303764</v>
+        <v>444247.7983912</v>
       </c>
       <c r="U15" t="n">
-        <v>70559.88188</v>
+        <v>80527.439248</v>
       </c>
       <c r="V15" t="n">
-        <v>51862.57427319999</v>
+        <v>58774.13096627999</v>
       </c>
       <c r="W15" t="n">
         <v>3700</v>
@@ -8641,8 +8713,16 @@
       <c r="AI15" t="n">
         <v>0</v>
       </c>
-      <c r="AJ15" t="inlineStr"/>
-      <c r="AK15" t="inlineStr"/>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,23821</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>21,0;31,12139;41,0</t>
+        </is>
+      </c>
       <c r="AL15" t="n">
         <v>803280.94565</v>
       </c>
@@ -8662,10 +8742,10 @@
         <v>0</v>
       </c>
       <c r="AR15" t="n">
-        <v>0</v>
+        <v>151756.09145161</v>
       </c>
       <c r="AS15" t="n">
-        <v>1199724.7908069</v>
+        <v>1351480.88225851</v>
       </c>
     </row>
     <row r="16">
@@ -8729,13 +8809,13 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>401009.303764</v>
+        <v>451454.7141623999</v>
       </c>
       <c r="U16" t="n">
-        <v>70559.88188</v>
+        <v>82188.36547600001</v>
       </c>
       <c r="V16" t="n">
-        <v>51862.57427319999</v>
+        <v>59926.22374845999</v>
       </c>
       <c r="W16" t="n">
         <v>3780</v>
@@ -8776,8 +8856,16 @@
       <c r="AI16" t="n">
         <v>0</v>
       </c>
-      <c r="AJ16" t="inlineStr"/>
-      <c r="AK16" t="inlineStr"/>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,27791</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>21,0;31,14162;41,0</t>
+        </is>
+      </c>
       <c r="AL16" t="n">
         <v>803280.94565</v>
       </c>
@@ -8797,10 +8885,10 @@
         <v>0</v>
       </c>
       <c r="AR16" t="n">
-        <v>0</v>
+        <v>177047.931693545</v>
       </c>
       <c r="AS16" t="n">
-        <v>1199907.7908069</v>
+        <v>1376955.722500445</v>
       </c>
     </row>
     <row r="17">
@@ -8864,13 +8952,13 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>999838.6216866</v>
+        <v>1066271.95298794</v>
       </c>
       <c r="U17" t="n">
-        <v>179455.7344592</v>
+        <v>194771.49906088</v>
       </c>
       <c r="V17" t="n">
-        <v>149190.1544</v>
+        <v>160068.87072</v>
       </c>
       <c r="W17" t="n">
         <v>4100</v>
@@ -8911,8 +8999,16 @@
       <c r="AI17" t="n">
         <v>0</v>
       </c>
-      <c r="AJ17" t="inlineStr"/>
-      <c r="AK17" t="inlineStr"/>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,36742</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>21,0;31,19213;41,0</t>
+        </is>
+      </c>
       <c r="AL17" t="n">
         <v>1841057.90632</v>
       </c>
@@ -8932,10 +9028,10 @@
         <v>0</v>
       </c>
       <c r="AR17" t="n">
-        <v>0</v>
+        <v>234664.725892932</v>
       </c>
       <c r="AS17" t="n">
-        <v>3110484.07725508</v>
+        <v>3345148.803148013</v>
       </c>
     </row>
     <row r="18">
@@ -8999,13 +9095,13 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>5149269.9365138</v>
+        <v>5324063.3243529</v>
       </c>
       <c r="U18" t="n">
-        <v>913025.1229076</v>
+        <v>953318.82507125</v>
       </c>
       <c r="V18" t="n">
-        <v>742867.7034594</v>
+        <v>771043.77585258</v>
       </c>
       <c r="W18" t="n">
         <v>4740</v>
@@ -9046,8 +9142,16 @@
       <c r="AI18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ18" t="inlineStr"/>
-      <c r="AK18" t="inlineStr"/>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,89660</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>21,0;31,55720;41,0</t>
+        </is>
+      </c>
       <c r="AL18" t="n">
         <v>11223015.574385</v>
       </c>
@@ -9067,10 +9171,10 @@
         <v>0</v>
       </c>
       <c r="AR18" t="n">
-        <v>0</v>
+        <v>614832.34902907</v>
       </c>
       <c r="AS18" t="n">
-        <v>15736654.07946779</v>
+        <v>16351486.42849686</v>
       </c>
     </row>
     <row r="19">
@@ -9134,13 +9238,13 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>8508181.9735629</v>
+        <v>8682975.361401999</v>
       </c>
       <c r="U19" t="n">
-        <v>1508952.1205004</v>
+        <v>1549245.82266405</v>
       </c>
       <c r="V19" t="n">
-        <v>1220892.2509208</v>
+        <v>1249068.32331398</v>
       </c>
       <c r="W19" t="n">
         <v>5780</v>
@@ -9181,8 +9285,16 @@
       <c r="AI19" t="n">
         <v>0</v>
       </c>
-      <c r="AJ19" t="inlineStr"/>
-      <c r="AK19" t="inlineStr"/>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,89660</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>21,0;31,55720;41,0</t>
+        </is>
+      </c>
       <c r="AL19" t="n">
         <v>18211468.43579</v>
       </c>
@@ -9202,10 +9314,10 @@
         <v>0</v>
       </c>
       <c r="AR19" t="n">
-        <v>0</v>
+        <v>614832.34902907</v>
       </c>
       <c r="AS19" t="n">
-        <v>25958482.54781026</v>
+        <v>26573314.89683933</v>
       </c>
     </row>
     <row r="20">
@@ -9269,13 +9381,13 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>207833.0193959</v>
+        <v>211621.78191837</v>
       </c>
       <c r="U20" t="n">
-        <v>41671.256788</v>
+        <v>42610.7760866</v>
       </c>
       <c r="V20" t="n">
-        <v>23412.6666064</v>
+        <v>23889.29152336</v>
       </c>
       <c r="W20" t="n">
         <v>1380</v>
@@ -9316,8 +9428,16 @@
       <c r="AI20" t="n">
         <v>0</v>
       </c>
-      <c r="AJ20" t="inlineStr"/>
-      <c r="AK20" t="inlineStr"/>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,1635</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>21,0;31,1147;41,0</t>
+        </is>
+      </c>
       <c r="AL20" t="n">
         <v>551386.8957999999</v>
       </c>
@@ -9337,10 +9457,10 @@
         <v>0</v>
       </c>
       <c r="AR20" t="n">
-        <v>0</v>
+        <v>13012.03895533</v>
       </c>
       <c r="AS20" t="n">
-        <v>635105.5242199</v>
+        <v>648117.5631752301</v>
       </c>
     </row>
     <row r="21">
@@ -9404,13 +9524,13 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>273441.7552602</v>
+        <v>278495.74575058</v>
       </c>
       <c r="U21" t="n">
-        <v>51939.0017784</v>
+        <v>53150.21558462</v>
       </c>
       <c r="V21" t="n">
-        <v>32668.9305664</v>
+        <v>33354.27834112</v>
       </c>
       <c r="W21" t="n">
         <v>1860</v>
@@ -9451,8 +9571,16 @@
       <c r="AI21" t="n">
         <v>0</v>
       </c>
-      <c r="AJ21" t="inlineStr"/>
-      <c r="AK21" t="inlineStr"/>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,2314</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>21,0;31,1526;41,0</t>
+        </is>
+      </c>
       <c r="AL21" t="n">
         <v>653177.36674</v>
       </c>
@@ -9472,10 +9600,10 @@
         <v>0</v>
       </c>
       <c r="AR21" t="n">
-        <v>0</v>
+        <v>17352.115457938</v>
       </c>
       <c r="AS21" t="n">
-        <v>827235.71828796</v>
+        <v>844587.833745898</v>
       </c>
     </row>
     <row r="22">
@@ -9539,13 +9667,13 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>383297.8548692</v>
+        <v>392692.62541972</v>
       </c>
       <c r="U22" t="n">
-        <v>69399.23695240001</v>
+        <v>71566.05886152001</v>
       </c>
       <c r="V22" t="n">
-        <v>48878.353322</v>
+        <v>50308.6334657</v>
       </c>
       <c r="W22" t="n">
         <v>3620</v>
@@ -9586,8 +9714,16 @@
       <c r="AI22" t="n">
         <v>0</v>
       </c>
-      <c r="AJ22" t="inlineStr"/>
-      <c r="AK22" t="inlineStr"/>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,4698</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>21,0;31,2856;41,0</t>
+        </is>
+      </c>
       <c r="AL22" t="n">
         <v>826394.1174400001</v>
       </c>
@@ -9607,10 +9743,10 @@
         <v>0</v>
       </c>
       <c r="AR22" t="n">
-        <v>0</v>
+        <v>32569.952549723</v>
       </c>
       <c r="AS22" t="n">
-        <v>1156450.12144226</v>
+        <v>1189020.073991983</v>
       </c>
     </row>
     <row r="23">
@@ -9674,13 +9810,13 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>443771.798678</v>
+        <v>456109.711226</v>
       </c>
       <c r="U23" t="n">
-        <v>81152.08724000001</v>
+        <v>83997.45560900001</v>
       </c>
       <c r="V23" t="n">
-        <v>58596.0851374</v>
+        <v>60519.53853941</v>
       </c>
       <c r="W23" t="n">
         <v>3780</v>
@@ -9721,8 +9857,16 @@
       <c r="AI23" t="n">
         <v>0</v>
       </c>
-      <c r="AJ23" t="inlineStr"/>
-      <c r="AK23" t="inlineStr"/>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,6252</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>21,0;31,3812;41,0</t>
+        </is>
+      </c>
       <c r="AL23" t="n">
         <v>902423.8294250001</v>
       </c>
@@ -9742,10 +9886,10 @@
         <v>0</v>
       </c>
       <c r="AR23" t="n">
-        <v>0</v>
+        <v>43030.8113556575</v>
       </c>
       <c r="AS23" t="n">
-        <v>1354474.19017405</v>
+        <v>1397505.001529708</v>
       </c>
     </row>
     <row r="24">
@@ -9809,13 +9953,13 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>510661.32454</v>
+        <v>525496.632164</v>
       </c>
       <c r="U24" t="n">
-        <v>98619.5734104</v>
+        <v>102039.13076008</v>
       </c>
       <c r="V24" t="n">
-        <v>71514.12915920001</v>
+        <v>73877.65194676</v>
       </c>
       <c r="W24" t="n">
         <v>4100</v>
@@ -9856,8 +10000,16 @@
       <c r="AI24" t="n">
         <v>0</v>
       </c>
-      <c r="AJ24" t="inlineStr"/>
-      <c r="AK24" t="inlineStr"/>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,7642</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>21,0;31,4634;41,0</t>
+        </is>
+      </c>
       <c r="AL24" t="n">
         <v>1022422.68964</v>
       </c>
@@ -9877,10 +10029,10 @@
         <v>0</v>
       </c>
       <c r="AR24" t="n">
-        <v>0</v>
+        <v>52020.50936526201</v>
       </c>
       <c r="AS24" t="n">
-        <v>1616900.12373716</v>
+        <v>1668920.633102422</v>
       </c>
     </row>
     <row r="25">
@@ -9944,13 +10096,13 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>648208.8926601</v>
+        <v>668578.29292205</v>
       </c>
       <c r="U25" t="n">
-        <v>134234.1699012</v>
+        <v>138929.04938625</v>
       </c>
       <c r="V25" t="n">
-        <v>97772.48092820001</v>
+        <v>101124.40019274</v>
       </c>
       <c r="W25" t="n">
         <v>4740</v>
@@ -9991,8 +10143,16 @@
       <c r="AI25" t="n">
         <v>0</v>
       </c>
-      <c r="AJ25" t="inlineStr"/>
-      <c r="AK25" t="inlineStr"/>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,10702</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>21,0;31,6460;41,0</t>
+        </is>
+      </c>
       <c r="AL25" t="n">
         <v>1271762.297045</v>
       </c>
@@ -10012,10 +10172,10 @@
         <v>0</v>
       </c>
       <c r="AR25" t="n">
-        <v>0</v>
+        <v>72037.60447990001</v>
       </c>
       <c r="AS25" t="n">
-        <v>2152637.93031553</v>
+        <v>2224675.53479543</v>
       </c>
     </row>
   </sheetData>

--- a/opm_hero_property/heroes/51.xlsx
+++ b/opm_hero_property/heroes/51.xlsx
@@ -6543,7 +6543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS25"/>
+  <dimension ref="A1:AW25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6739,40 +6739,60 @@
       </c>
       <c r="AL1" t="inlineStr">
         <is>
+          <t>job_contact</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>attr_addition</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>pvp_addition</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
           <t>基础战力</t>
         </is>
       </c>
-      <c r="AM1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>装备战力</t>
         </is>
       </c>
-      <c r="AN1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
         <is>
           <t>天赋战力</t>
         </is>
       </c>
-      <c r="AO1" t="inlineStr">
+      <c r="AR1" t="inlineStr">
         <is>
           <t>研究所战力</t>
         </is>
       </c>
-      <c r="AP1" t="inlineStr">
+      <c r="AS1" t="inlineStr">
         <is>
           <t>职阶战力</t>
         </is>
       </c>
-      <c r="AQ1" t="inlineStr">
+      <c r="AT1" t="inlineStr">
         <is>
           <t>机械核心战力</t>
         </is>
       </c>
-      <c r="AR1" t="inlineStr">
+      <c r="AU1" t="inlineStr">
         <is>
           <t>限制器战力</t>
         </is>
       </c>
-      <c r="AS1" t="inlineStr">
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>收集战力</t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
         <is>
           <t>总战力</t>
         </is>
@@ -6812,7 +6832,7 @@
         <v>10</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L2" t="n">
         <v>51</v>
@@ -6839,13 +6859,13 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>5324063.3243529</v>
+        <v>6177757.1188649</v>
       </c>
       <c r="U2" t="n">
-        <v>953318.82507125</v>
+        <v>1114334.93346325</v>
       </c>
       <c r="V2" t="n">
-        <v>771043.77585258</v>
+        <v>897759.5416845799</v>
       </c>
       <c r="W2" t="n">
         <v>4740</v>
@@ -6884,7 +6904,7 @@
         <v>10</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
@@ -6897,28 +6917,36 @@
         </is>
       </c>
       <c r="AL2" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="n">
         <v>11223015.574385</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AP2" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AQ2" t="n">
         <v>1911222.20508279</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AR2" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP2" t="n">
-        <v>2007105.4</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR2" t="n">
+      <c r="AS2" t="n">
+        <v>2904880.6459508</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1795545.35</v>
+      </c>
+      <c r="AU2" t="n">
         <v>614832.34902907</v>
       </c>
-      <c r="AS2" t="n">
-        <v>16351486.42849686</v>
+      <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>19044807.02444766</v>
       </c>
     </row>
     <row r="3">
@@ -6955,7 +6983,7 @@
         <v>10</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L3" t="n">
         <v>51</v>
@@ -6982,13 +7010,13 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>668578.29292205</v>
+        <v>764718.02374605</v>
       </c>
       <c r="U3" t="n">
-        <v>138929.04938625</v>
+        <v>157061.47429025</v>
       </c>
       <c r="V3" t="n">
-        <v>101124.40019274</v>
+        <v>115691.35168874</v>
       </c>
       <c r="W3" t="n">
         <v>4740</v>
@@ -7027,7 +7055,7 @@
         <v>10</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
@@ -7040,28 +7068,36 @@
         </is>
       </c>
       <c r="AL3" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="n">
         <v>1271762.297045</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AP3" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AQ3" t="n">
         <v>217127.38327053</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AR3" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP3" t="n">
-        <v>480680.6</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="n">
+      <c r="AS3" t="n">
+        <v>582355.5837636</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>203338.45</v>
+      </c>
+      <c r="AU3" t="n">
         <v>72037.60447990001</v>
       </c>
-      <c r="AS3" t="n">
-        <v>2224675.53479543</v>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>2529688.96855903</v>
       </c>
     </row>
     <row r="4">
@@ -7098,7 +7134,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
         <v>51</v>
@@ -7125,13 +7161,13 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>7290.6196</v>
+        <v>7740.6196</v>
       </c>
       <c r="U4" t="n">
-        <v>1629.2586</v>
+        <v>1713.2586</v>
       </c>
       <c r="V4" t="n">
-        <v>561.3551</v>
+        <v>627.3551</v>
       </c>
       <c r="W4" t="n">
         <v>600</v>
@@ -7170,25 +7206,21 @@
         <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="n">
         <v>19037.445765</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AP4" t="n">
         <v>4456.85</v>
       </c>
-      <c r="AN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ4" t="n">
         <v>0</v>
       </c>
@@ -7196,7 +7228,19 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>23494.295765</v>
+        <v>0</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>1409.1</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>24903.395765</v>
       </c>
     </row>
     <row r="5">
@@ -7233,7 +7277,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
         <v>51</v>
@@ -7260,13 +7304,13 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>19387.0121</v>
+        <v>32602.0121</v>
       </c>
       <c r="U5" t="n">
-        <v>4085.0642</v>
+        <v>6577.0642</v>
       </c>
       <c r="V5" t="n">
-        <v>1706.017</v>
+        <v>3667.017</v>
       </c>
       <c r="W5" t="n">
         <v>777</v>
@@ -7305,25 +7349,21 @@
         <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="n">
         <v>48324.80283</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AP5" t="n">
         <v>11828.8</v>
       </c>
-      <c r="AN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ5" t="n">
         <v>0</v>
       </c>
@@ -7331,7 +7371,19 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>60153.60283</v>
+        <v>0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>41685.55</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>101839.15283</v>
       </c>
     </row>
     <row r="6">
@@ -7368,7 +7420,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L6" t="n">
         <v>51</v>
@@ -7395,13 +7447,13 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>54547.7508</v>
+        <v>111204.7508</v>
       </c>
       <c r="U6" t="n">
-        <v>10576.75</v>
+        <v>21262.75</v>
       </c>
       <c r="V6" t="n">
-        <v>5446.004</v>
+        <v>13855.004</v>
       </c>
       <c r="W6" t="n">
         <v>1300</v>
@@ -7440,33 +7492,41 @@
         <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="n">
         <v>115407.5488</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AP6" t="n">
         <v>32682</v>
       </c>
-      <c r="AN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO6" t="n">
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AS6" t="n">
         <v>9526.799999999999</v>
       </c>
-      <c r="AQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>163776.8488</v>
+      <c r="AT6" t="n">
+        <v>178742.15</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>342518.9988</v>
       </c>
     </row>
     <row r="7">
@@ -7503,7 +7563,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L7" t="n">
         <v>51</v>
@@ -7530,13 +7590,13 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>60958.73710288</v>
+        <v>117615.73710288</v>
       </c>
       <c r="U7" t="n">
-        <v>12056.7389</v>
+        <v>22742.7389</v>
       </c>
       <c r="V7" t="n">
-        <v>6472.7600156</v>
+        <v>14881.7600156</v>
       </c>
       <c r="W7" t="n">
         <v>1380</v>
@@ -7575,7 +7635,7 @@
         <v>1</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
@@ -7588,28 +7648,36 @@
         </is>
       </c>
       <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="n">
         <v>115407.5488</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AP7" t="n">
         <v>32682</v>
       </c>
-      <c r="AN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO7" t="n">
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AS7" t="n">
         <v>9709.799999999999</v>
       </c>
-      <c r="AQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR7" t="n">
+      <c r="AT7" t="n">
+        <v>178742.15</v>
+      </c>
+      <c r="AU7" t="n">
         <v>22526.75680258</v>
       </c>
-      <c r="AS7" t="n">
-        <v>186486.60560258</v>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>365228.75560258</v>
       </c>
     </row>
     <row r="8">
@@ -7646,7 +7714,7 @@
         <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L8" t="n">
         <v>51</v>
@@ -7673,13 +7741,13 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>67637.08566136</v>
+        <v>124294.08566136</v>
       </c>
       <c r="U8" t="n">
-        <v>13567.6268</v>
+        <v>24253.6268</v>
       </c>
       <c r="V8" t="n">
-        <v>7524.7560552</v>
+        <v>15933.7560552</v>
       </c>
       <c r="W8" t="n">
         <v>1380</v>
@@ -7718,7 +7786,7 @@
         <v>2</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
@@ -7731,28 +7799,36 @@
         </is>
       </c>
       <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="n">
         <v>115407.5488</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AP8" t="n">
         <v>32682</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AQ8" t="n">
         <v>618.9454936</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AR8" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AS8" t="n">
         <v>9709.799999999999</v>
       </c>
-      <c r="AQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR8" t="n">
+      <c r="AT8" t="n">
+        <v>178742.15</v>
+      </c>
+      <c r="AU8" t="n">
         <v>45060.26360516001</v>
       </c>
-      <c r="AS8" t="n">
-        <v>209639.05789876</v>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>388381.20789876</v>
       </c>
     </row>
     <row r="9">
@@ -7789,7 +7865,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L9" t="n">
         <v>51</v>
@@ -7816,31 +7892,31 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>230369.8324</v>
+        <v>401643.2607240001</v>
       </c>
       <c r="U9" t="n">
-        <v>42743.816</v>
+        <v>73051.94416</v>
       </c>
       <c r="V9" t="n">
-        <v>26477.901</v>
+        <v>50452.83001000001</v>
       </c>
       <c r="W9" t="n">
-        <v>3620</v>
+        <v>3630</v>
       </c>
       <c r="X9" t="n">
-        <v>1440</v>
+        <v>1450</v>
       </c>
       <c r="Y9" t="n">
         <v>15000</v>
       </c>
       <c r="Z9" t="n">
-        <v>1620</v>
+        <v>1630</v>
       </c>
       <c r="AA9" t="n">
-        <v>2160</v>
+        <v>2170</v>
       </c>
       <c r="AB9" t="n">
-        <v>720</v>
+        <v>760</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -7861,33 +7937,41 @@
         <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="n">
         <v>521605.44355</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AP9" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" t="n">
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP9" t="n">
-        <v>39338.4</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>0</v>
-      </c>
       <c r="AS9" t="n">
-        <v>690372.0935500001</v>
+        <v>44546.2044355</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>418819.95</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>94347.60000000001</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>1208747.4479855</v>
       </c>
     </row>
     <row r="10">
@@ -7924,7 +8008,7 @@
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L10" t="n">
         <v>51</v>
@@ -7951,31 +8035,31 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>238474.90642344</v>
+        <v>466720.7647728939</v>
       </c>
       <c r="U10" t="n">
-        <v>44463.76365440001</v>
+        <v>84185.24791971841</v>
       </c>
       <c r="V10" t="n">
-        <v>27700.6907199</v>
+        <v>58102.9808850382</v>
       </c>
       <c r="W10" t="n">
-        <v>3620</v>
+        <v>3630</v>
       </c>
       <c r="X10" t="n">
-        <v>1440</v>
+        <v>1450</v>
       </c>
       <c r="Y10" t="n">
         <v>15000</v>
       </c>
       <c r="Z10" t="n">
-        <v>1620</v>
+        <v>1630</v>
       </c>
       <c r="AA10" t="n">
-        <v>2160</v>
+        <v>2170</v>
       </c>
       <c r="AB10" t="n">
-        <v>720</v>
+        <v>760</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
@@ -7996,7 +8080,7 @@
         <v>1</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
@@ -8009,28 +8093,40 @@
         </is>
       </c>
       <c r="AL10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO10" t="n">
         <v>521605.44355</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AP10" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AQ10" t="n">
         <v>2847.3686329</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AR10" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP10" t="n">
-        <v>39338.4</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR10" t="n">
+      <c r="AS10" t="n">
+        <v>44546.2044355</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>418819.95</v>
+      </c>
+      <c r="AU10" t="n">
         <v>24156.385095325</v>
       </c>
-      <c r="AS10" t="n">
-        <v>717375.8472782251</v>
+      <c r="AV10" t="n">
+        <v>253229.5137941956</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>1394633.115507921</v>
       </c>
     </row>
     <row r="11">
@@ -8067,7 +8163,7 @@
         <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L11" t="n">
         <v>51</v>
@@ -8094,31 +8190,31 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>278153.401478</v>
+        <v>571288.192738436</v>
       </c>
       <c r="U11" t="n">
-        <v>52128.261856</v>
+        <v>100836.356056576</v>
       </c>
       <c r="V11" t="n">
-        <v>33365.9940355</v>
+        <v>70996.259660319</v>
       </c>
       <c r="W11" t="n">
-        <v>3620</v>
+        <v>3630</v>
       </c>
       <c r="X11" t="n">
-        <v>1440</v>
+        <v>1450</v>
       </c>
       <c r="Y11" t="n">
         <v>15000</v>
       </c>
       <c r="Z11" t="n">
-        <v>1870</v>
+        <v>1880</v>
       </c>
       <c r="AA11" t="n">
-        <v>2160</v>
+        <v>2170</v>
       </c>
       <c r="AB11" t="n">
-        <v>720</v>
+        <v>760</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -8139,7 +8235,7 @@
         <v>5</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
@@ -8152,28 +8248,40 @@
         </is>
       </c>
       <c r="AL11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO11" t="n">
         <v>521605.44355</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AP11" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="AQ11" t="n">
         <v>31533.5549619</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AR11" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP11" t="n">
-        <v>39338.4</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR11" t="n">
+      <c r="AS11" t="n">
+        <v>44546.2044355</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>418819.95</v>
+      </c>
+      <c r="AU11" t="n">
         <v>120821.725476625</v>
       </c>
-      <c r="AS11" t="n">
-        <v>842727.373988525</v>
+      <c r="AV11" t="n">
+        <v>421686.9141516197</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>1688442.042575645</v>
       </c>
     </row>
     <row r="12">
@@ -8210,7 +8318,7 @@
         <v>5</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L12" t="n">
         <v>51</v>
@@ -8237,31 +8345,31 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>290245.399746</v>
+        <v>665952.17945947</v>
       </c>
       <c r="U12" t="n">
-        <v>53432.774496</v>
+        <v>111490.037611776</v>
       </c>
       <c r="V12" t="n">
-        <v>34649.5680955</v>
+        <v>83127.10998393099</v>
       </c>
       <c r="W12" t="n">
-        <v>3620</v>
+        <v>3640</v>
       </c>
       <c r="X12" t="n">
-        <v>1440</v>
+        <v>1460</v>
       </c>
       <c r="Y12" t="n">
         <v>15000</v>
       </c>
       <c r="Z12" t="n">
-        <v>2120</v>
+        <v>2140</v>
       </c>
       <c r="AA12" t="n">
-        <v>2160</v>
+        <v>2180</v>
       </c>
       <c r="AB12" t="n">
-        <v>720</v>
+        <v>800</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -8282,7 +8390,7 @@
         <v>5</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
@@ -8295,28 +8403,40 @@
         </is>
       </c>
       <c r="AL12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO12" t="n">
         <v>521605.44355</v>
       </c>
-      <c r="AM12" t="n">
+      <c r="AP12" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AQ12" t="n">
         <v>60219.7412909</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AR12" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP12" t="n">
-        <v>39338.4</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR12" t="n">
+      <c r="AS12" t="n">
+        <v>44546.2044355</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>418819.95</v>
+      </c>
+      <c r="AU12" t="n">
         <v>120821.725476625</v>
       </c>
-      <c r="AS12" t="n">
-        <v>871413.5603175251</v>
+      <c r="AV12" t="n">
+        <v>631260.0066353024</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>1926701.321388328</v>
       </c>
     </row>
     <row r="13">
@@ -8353,7 +8473,7 @@
         <v>10</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L13" t="n">
         <v>51</v>
@@ -8380,31 +8500,31 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>336042.4262514</v>
+        <v>808782.9595214833</v>
       </c>
       <c r="U13" t="n">
-        <v>62507.3986</v>
+        <v>133603.49282196</v>
       </c>
       <c r="V13" t="n">
-        <v>41307.6178002</v>
+        <v>100918.2697762284</v>
       </c>
       <c r="W13" t="n">
-        <v>3620</v>
+        <v>3670</v>
       </c>
       <c r="X13" t="n">
-        <v>1440</v>
+        <v>1490</v>
       </c>
       <c r="Y13" t="n">
         <v>15000</v>
       </c>
       <c r="Z13" t="n">
-        <v>2370</v>
+        <v>2420</v>
       </c>
       <c r="AA13" t="n">
-        <v>2160</v>
+        <v>2210</v>
       </c>
       <c r="AB13" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
@@ -8425,7 +8545,7 @@
         <v>10</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
@@ -8438,28 +8558,40 @@
         </is>
       </c>
       <c r="AL13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO13" t="n">
         <v>521605.44355</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AP13" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN13" t="n">
+      <c r="AQ13" t="n">
         <v>88905.9276199</v>
       </c>
-      <c r="AO13" t="n">
+      <c r="AR13" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP13" t="n">
-        <v>39338.4</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR13" t="n">
+      <c r="AS13" t="n">
+        <v>44546.2044355</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>418819.95</v>
+      </c>
+      <c r="AU13" t="n">
         <v>239043.75777265</v>
       </c>
-      <c r="AS13" t="n">
-        <v>1018321.77894255</v>
+      <c r="AV13" t="n">
+        <v>882637.0778282706</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>2324986.611206321</v>
       </c>
     </row>
     <row r="14">
@@ -8496,7 +8628,7 @@
         <v>5</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L14" t="n">
         <v>51</v>
@@ -8523,31 +8655,31 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>302337.398014</v>
+        <v>905961.2340022241</v>
       </c>
       <c r="U14" t="n">
-        <v>54737.287136</v>
+        <v>140522.921263104</v>
       </c>
       <c r="V14" t="n">
-        <v>35933.1421555</v>
+        <v>105730.120873472</v>
       </c>
       <c r="W14" t="n">
-        <v>3540</v>
+        <v>3590</v>
       </c>
       <c r="X14" t="n">
-        <v>1440</v>
+        <v>1490</v>
       </c>
       <c r="Y14" t="n">
         <v>15000</v>
       </c>
       <c r="Z14" t="n">
-        <v>2310</v>
+        <v>2360</v>
       </c>
       <c r="AA14" t="n">
-        <v>2160</v>
+        <v>2210</v>
       </c>
       <c r="AB14" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
@@ -8568,7 +8700,7 @@
         <v>5</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
@@ -8581,28 +8713,40 @@
         </is>
       </c>
       <c r="AL14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO14" t="n">
         <v>521605.44355</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AP14" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AQ14" t="n">
         <v>88905.9276199</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AR14" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP14" t="n">
-        <v>39155.4</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR14" t="n">
+      <c r="AS14" t="n">
+        <v>44363.2044355</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>418819.95</v>
+      </c>
+      <c r="AU14" t="n">
         <v>120821.725476625</v>
       </c>
-      <c r="AS14" t="n">
-        <v>899916.7466465251</v>
+      <c r="AV14" t="n">
+        <v>1173449.584658081</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>2497394.085740105</v>
       </c>
     </row>
     <row r="15">
@@ -8639,7 +8783,7 @@
         <v>6</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L15" t="n">
         <v>51</v>
@@ -8666,31 +8810,31 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>444247.7983912</v>
+        <v>1437471.056885141</v>
       </c>
       <c r="U15" t="n">
-        <v>80527.439248</v>
+        <v>234257.64301336</v>
       </c>
       <c r="V15" t="n">
-        <v>58774.13096627999</v>
+        <v>178955.390376362</v>
       </c>
       <c r="W15" t="n">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="X15" t="n">
-        <v>1440</v>
+        <v>1540</v>
       </c>
       <c r="Y15" t="n">
         <v>15000</v>
       </c>
       <c r="Z15" t="n">
-        <v>2430</v>
+        <v>2530</v>
       </c>
       <c r="AA15" t="n">
-        <v>2160</v>
+        <v>2260</v>
       </c>
       <c r="AB15" t="n">
-        <v>720</v>
+        <v>1120</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
@@ -8711,7 +8855,7 @@
         <v>6</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
@@ -8724,28 +8868,40 @@
         </is>
       </c>
       <c r="AL15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO15" t="n">
         <v>803280.94565</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AP15" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AQ15" t="n">
         <v>137022.4451569</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AR15" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP15" t="n">
-        <v>111894</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR15" t="n">
+      <c r="AS15" t="n">
+        <v>127943.118913</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>766302.55</v>
+      </c>
+      <c r="AU15" t="n">
         <v>151756.09145161</v>
       </c>
-      <c r="AS15" t="n">
-        <v>1351480.88225851</v>
+      <c r="AV15" t="n">
+        <v>1963852.237169897</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>4097684.788341407</v>
       </c>
     </row>
     <row r="16">
@@ -8782,7 +8938,7 @@
         <v>7</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L16" t="n">
         <v>51</v>
@@ -8809,31 +8965,31 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>451454.7141623999</v>
+        <v>1472237.710418541</v>
       </c>
       <c r="U16" t="n">
-        <v>82188.36547600001</v>
+        <v>240346.246923336</v>
       </c>
       <c r="V16" t="n">
-        <v>59926.22374845999</v>
+        <v>183429.0175205351</v>
       </c>
       <c r="W16" t="n">
-        <v>3780</v>
+        <v>3980</v>
       </c>
       <c r="X16" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="Y16" t="n">
         <v>15000</v>
       </c>
       <c r="Z16" t="n">
-        <v>2490</v>
+        <v>2690</v>
       </c>
       <c r="AA16" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AB16" t="n">
-        <v>720</v>
+        <v>1520</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
@@ -8854,7 +9010,7 @@
         <v>7</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
@@ -8867,28 +9023,40 @@
         </is>
       </c>
       <c r="AL16" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO16" t="n">
         <v>803280.94565</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AP16" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AQ16" t="n">
         <v>137022.4451569</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AR16" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP16" t="n">
-        <v>112077</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR16" t="n">
+      <c r="AS16" t="n">
+        <v>128126.118913</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>766302.55</v>
+      </c>
+      <c r="AU16" t="n">
         <v>177047.931693545</v>
       </c>
-      <c r="AS16" t="n">
-        <v>1376955.722500445</v>
+      <c r="AV16" t="n">
+        <v>2042261.773519192</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>4201569.164932637</v>
       </c>
     </row>
     <row r="17">
@@ -8925,7 +9093,7 @@
         <v>8</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L17" t="n">
         <v>51</v>
@@ -8952,31 +9120,31 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1066271.95298794</v>
+        <v>2658952.614189696</v>
       </c>
       <c r="U17" t="n">
-        <v>194771.49906088</v>
+        <v>435525.4135747674</v>
       </c>
       <c r="V17" t="n">
-        <v>160068.87072</v>
+        <v>356402.57296384</v>
       </c>
       <c r="W17" t="n">
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="X17" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="Y17" t="n">
         <v>15000</v>
       </c>
       <c r="Z17" t="n">
-        <v>2730</v>
+        <v>2930</v>
       </c>
       <c r="AA17" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AB17" t="n">
-        <v>720</v>
+        <v>1520</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
@@ -8997,7 +9165,7 @@
         <v>8</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
@@ -9010,28 +9178,40 @@
         </is>
       </c>
       <c r="AL17" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO17" t="n">
         <v>1841057.90632</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AP17" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AQ17" t="n">
         <v>314406.42093508</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AR17" t="n">
         <v>155697.55</v>
       </c>
-      <c r="AP17" t="n">
-        <v>685015</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR17" t="n">
+      <c r="AS17" t="n">
+        <v>758624.3162527999</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>1224376.05</v>
+      </c>
+      <c r="AU17" t="n">
         <v>234664.725892932</v>
       </c>
-      <c r="AS17" t="n">
-        <v>3345148.803148013</v>
+      <c r="AV17" t="n">
+        <v>3087216.092996859</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>7730350.262397671</v>
       </c>
     </row>
     <row r="18">
@@ -9068,7 +9248,7 @@
         <v>10</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L18" t="n">
         <v>51</v>
@@ -9095,31 +9275,31 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>5324063.3243529</v>
+        <v>9349603.183309663</v>
       </c>
       <c r="U18" t="n">
-        <v>953318.82507125</v>
+        <v>1514370.055611913</v>
       </c>
       <c r="V18" t="n">
-        <v>771043.77585258</v>
+        <v>1226856.91160336</v>
       </c>
       <c r="W18" t="n">
-        <v>4740</v>
+        <v>4940</v>
       </c>
       <c r="X18" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
-        <v>3210</v>
+        <v>3410</v>
       </c>
       <c r="AA18" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AB18" t="n">
-        <v>720</v>
+        <v>1520</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
@@ -9140,7 +9320,7 @@
         <v>10</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
@@ -9153,28 +9333,40 @@
         </is>
       </c>
       <c r="AL18" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO18" t="n">
         <v>11223015.574385</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AP18" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN18" t="n">
+      <c r="AQ18" t="n">
         <v>1911222.20508279</v>
       </c>
-      <c r="AO18" t="n">
+      <c r="AR18" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP18" t="n">
-        <v>2007105.4</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR18" t="n">
+      <c r="AS18" t="n">
+        <v>2904880.6459508</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>1795545.35</v>
+      </c>
+      <c r="AU18" t="n">
         <v>614832.34902907</v>
       </c>
-      <c r="AS18" t="n">
-        <v>16351486.42849686</v>
+      <c r="AV18" t="n">
+        <v>7826798.284303527</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>26871605.30875119</v>
       </c>
     </row>
     <row r="19">
@@ -9211,7 +9403,7 @@
         <v>10</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L19" t="n">
         <v>51</v>
@@ -9238,31 +9430,31 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>8682975.361401999</v>
+        <v>16036887.96452509</v>
       </c>
       <c r="U19" t="n">
-        <v>1549245.82266405</v>
+        <v>2695988.581743195</v>
       </c>
       <c r="V19" t="n">
-        <v>1249068.32331398</v>
+        <v>2180101.347461032</v>
       </c>
       <c r="W19" t="n">
-        <v>5780</v>
+        <v>5980</v>
       </c>
       <c r="X19" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="Y19" t="n">
         <v>15000</v>
       </c>
       <c r="Z19" t="n">
-        <v>3990</v>
+        <v>4190</v>
       </c>
       <c r="AA19" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AB19" t="n">
-        <v>720</v>
+        <v>1520</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
@@ -9283,7 +9475,7 @@
         <v>10</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
@@ -9296,28 +9488,40 @@
         </is>
       </c>
       <c r="AL19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AM19" t="inlineStr"/>
+      <c r="AN19" t="inlineStr">
+        <is>
+          <t>1,1,5000;2,1,5000;3,1,5000;4,1,5000;1,2,5000;2,2,5000;3,2,5000;4,2,5000;5,1,5000;5,2,5000</t>
+        </is>
+      </c>
+      <c r="AO19" t="n">
         <v>18211468.43579</v>
       </c>
-      <c r="AM19" t="n">
+      <c r="AP19" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN19" t="n">
+      <c r="AQ19" t="n">
         <v>3100654.71202026</v>
       </c>
-      <c r="AO19" t="n">
+      <c r="AR19" t="n">
         <v>1061573.2</v>
       </c>
-      <c r="AP19" t="n">
-        <v>3470479</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR19" t="n">
+      <c r="AS19" t="n">
+        <v>6202075.515368501</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>1795545.35</v>
+      </c>
+      <c r="AU19" t="n">
         <v>614832.34902907</v>
       </c>
-      <c r="AS19" t="n">
-        <v>26573314.89683933</v>
+      <c r="AV19" t="n">
+        <v>16095135.66424624</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>47195592.42645407</v>
       </c>
     </row>
     <row r="20">
@@ -9354,7 +9558,7 @@
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L20" t="n">
         <v>51</v>
@@ -9381,13 +9585,13 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>211621.78191837</v>
+        <v>218001.78191837</v>
       </c>
       <c r="U20" t="n">
-        <v>42610.7760866</v>
+        <v>43813.7760866</v>
       </c>
       <c r="V20" t="n">
-        <v>23889.29152336</v>
+        <v>24855.29152336</v>
       </c>
       <c r="W20" t="n">
         <v>1380</v>
@@ -9426,7 +9630,7 @@
         <v>1</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
@@ -9439,28 +9643,36 @@
         </is>
       </c>
       <c r="AL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr"/>
+      <c r="AO20" t="n">
         <v>551386.8957999999</v>
       </c>
-      <c r="AM20" t="n">
+      <c r="AP20" t="n">
         <v>32682</v>
       </c>
-      <c r="AN20" t="n">
+      <c r="AQ20" t="n">
         <v>2979.9284199</v>
       </c>
-      <c r="AO20" t="n">
+      <c r="AR20" t="n">
         <v>14696.9</v>
       </c>
-      <c r="AP20" t="n">
+      <c r="AS20" t="n">
         <v>33359.8</v>
       </c>
-      <c r="AQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR20" t="n">
+      <c r="AT20" t="n">
+        <v>20235.2</v>
+      </c>
+      <c r="AU20" t="n">
         <v>13012.03895533</v>
       </c>
-      <c r="AS20" t="n">
-        <v>648117.5631752301</v>
+      <c r="AV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>668352.76317523</v>
       </c>
     </row>
     <row r="21">
@@ -9497,7 +9709,7 @@
         <v>2</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L21" t="n">
         <v>51</v>
@@ -9524,13 +9736,13 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>278495.74575058</v>
+        <v>291685.3655765799</v>
       </c>
       <c r="U21" t="n">
-        <v>53150.21558462</v>
+        <v>55653.07767062</v>
       </c>
       <c r="V21" t="n">
-        <v>33354.27834112</v>
+        <v>35297.96624512001</v>
       </c>
       <c r="W21" t="n">
         <v>1860</v>
@@ -9569,7 +9781,7 @@
         <v>2</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
@@ -9582,28 +9794,36 @@
         </is>
       </c>
       <c r="AL21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM21" t="inlineStr"/>
+      <c r="AN21" t="inlineStr"/>
+      <c r="AO21" t="n">
         <v>653177.36674</v>
       </c>
-      <c r="AM21" t="n">
+      <c r="AP21" t="n">
         <v>49023</v>
       </c>
-      <c r="AN21" t="n">
+      <c r="AQ21" t="n">
         <v>39287.65154796</v>
       </c>
-      <c r="AO21" t="n">
+      <c r="AR21" t="n">
         <v>19028.1</v>
       </c>
-      <c r="AP21" t="n">
-        <v>66719.60000000001</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR21" t="n">
+      <c r="AS21" t="n">
+        <v>73243.1236674</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>35112.05</v>
+      </c>
+      <c r="AU21" t="n">
         <v>17352.115457938</v>
       </c>
-      <c r="AS21" t="n">
-        <v>844587.833745898</v>
+      <c r="AV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>886223.407413298</v>
       </c>
     </row>
     <row r="22">
@@ -9640,7 +9860,7 @@
         <v>5</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L22" t="n">
         <v>51</v>
@@ -9667,31 +9887,31 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>392692.62541972</v>
+        <v>518673.8979257676</v>
       </c>
       <c r="U22" t="n">
-        <v>71566.05886152001</v>
+        <v>90604.63146459413</v>
       </c>
       <c r="V22" t="n">
-        <v>50308.6334657</v>
+        <v>65438.24852229881</v>
       </c>
       <c r="W22" t="n">
-        <v>3620</v>
+        <v>3670</v>
       </c>
       <c r="X22" t="n">
-        <v>1440</v>
+        <v>1490</v>
       </c>
       <c r="Y22" t="n">
         <v>15000</v>
       </c>
       <c r="Z22" t="n">
-        <v>2120</v>
+        <v>2170</v>
       </c>
       <c r="AA22" t="n">
-        <v>2160</v>
+        <v>2210</v>
       </c>
       <c r="AB22" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
@@ -9712,7 +9932,7 @@
         <v>5</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
@@ -9725,28 +9945,40 @@
         </is>
       </c>
       <c r="AL22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM22" t="inlineStr"/>
+      <c r="AN22" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO22" t="n">
         <v>826394.1174400001</v>
       </c>
-      <c r="AM22" t="n">
+      <c r="AP22" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN22" t="n">
+      <c r="AQ22" t="n">
         <v>95474.70400226</v>
       </c>
-      <c r="AO22" t="n">
+      <c r="AR22" t="n">
         <v>23382.7</v>
       </c>
-      <c r="AP22" t="n">
-        <v>96891.39999999999</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR22" t="n">
+      <c r="AS22" t="n">
+        <v>105147.0911744</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>47424.85000000001</v>
+      </c>
+      <c r="AU22" t="n">
         <v>32569.952549723</v>
       </c>
-      <c r="AS22" t="n">
-        <v>1189020.073991983</v>
+      <c r="AV22" t="n">
+        <v>289262.1688683022</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>1533962.784034685</v>
       </c>
     </row>
     <row r="23">
@@ -9783,7 +10015,7 @@
         <v>7</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L23" t="n">
         <v>51</v>
@@ -9810,31 +10042,31 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>456109.711226</v>
+        <v>671388.0535922758</v>
       </c>
       <c r="U23" t="n">
-        <v>83997.45560900001</v>
+        <v>120377.725589103</v>
       </c>
       <c r="V23" t="n">
-        <v>60519.53853941</v>
+        <v>87083.84235681963</v>
       </c>
       <c r="W23" t="n">
-        <v>3780</v>
+        <v>3980</v>
       </c>
       <c r="X23" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="Y23" t="n">
         <v>15000</v>
       </c>
       <c r="Z23" t="n">
-        <v>2490</v>
+        <v>2690</v>
       </c>
       <c r="AA23" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AB23" t="n">
-        <v>720</v>
+        <v>1520</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
@@ -9855,7 +10087,7 @@
         <v>7</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
@@ -9868,28 +10100,40 @@
         </is>
       </c>
       <c r="AL23" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO23" t="n">
         <v>902423.8294250001</v>
       </c>
-      <c r="AM23" t="n">
+      <c r="AP23" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN23" t="n">
+      <c r="AQ23" t="n">
         <v>153960.51074905</v>
       </c>
-      <c r="AO23" t="n">
+      <c r="AR23" t="n">
         <v>30363.65</v>
       </c>
-      <c r="AP23" t="n">
-        <v>153419</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR23" t="n">
+      <c r="AS23" t="n">
+        <v>171450.9765885</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>86779.10000000001</v>
+      </c>
+      <c r="AU23" t="n">
         <v>43030.8113556575</v>
       </c>
-      <c r="AS23" t="n">
-        <v>1397505.001529708</v>
+      <c r="AV23" t="n">
+        <v>516635.875590592</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>2018951.9537088</v>
       </c>
     </row>
     <row r="24">
@@ -9926,7 +10170,7 @@
         <v>8</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L24" t="n">
         <v>51</v>
@@ -9953,31 +10197,31 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>525496.632164</v>
+        <v>843466.663559304</v>
       </c>
       <c r="U24" t="n">
-        <v>102039.13076008</v>
+        <v>156852.1863223046</v>
       </c>
       <c r="V24" t="n">
-        <v>73877.65194676</v>
+        <v>114400.0264181211</v>
       </c>
       <c r="W24" t="n">
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="X24" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="Y24" t="n">
         <v>15000</v>
       </c>
       <c r="Z24" t="n">
-        <v>2730</v>
+        <v>2930</v>
       </c>
       <c r="AA24" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AB24" t="n">
-        <v>720</v>
+        <v>1520</v>
       </c>
       <c r="AC24" t="n">
         <v>0</v>
@@ -9998,7 +10242,7 @@
         <v>8</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
@@ -10011,28 +10255,40 @@
         </is>
       </c>
       <c r="AL24" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO24" t="n">
         <v>1022422.68964</v>
       </c>
-      <c r="AM24" t="n">
+      <c r="AP24" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN24" t="n">
+      <c r="AQ24" t="n">
         <v>174490.98409716</v>
       </c>
-      <c r="AO24" t="n">
+      <c r="AR24" t="n">
         <v>43173.05</v>
       </c>
-      <c r="AP24" t="n">
-        <v>262506.2</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR24" t="n">
+      <c r="AS24" t="n">
+        <v>303370.1075856</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>138658.2</v>
+      </c>
+      <c r="AU24" t="n">
         <v>52020.50936526201</v>
       </c>
-      <c r="AS24" t="n">
-        <v>1668920.633102422</v>
+      <c r="AV24" t="n">
+        <v>752061.6603993797</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>2600504.401087401</v>
       </c>
     </row>
     <row r="25">
@@ -10069,7 +10325,7 @@
         <v>10</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L25" t="n">
         <v>51</v>
@@ -10096,31 +10352,31 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>668578.29292205</v>
+        <v>1441547.651334122</v>
       </c>
       <c r="U25" t="n">
-        <v>138929.04938625</v>
+        <v>269241.0779380553</v>
       </c>
       <c r="V25" t="n">
-        <v>101124.40019274</v>
+        <v>199600.5964868519</v>
       </c>
       <c r="W25" t="n">
-        <v>4740</v>
+        <v>4940</v>
       </c>
       <c r="X25" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="Y25" t="n">
         <v>15000</v>
       </c>
       <c r="Z25" t="n">
-        <v>3210</v>
+        <v>3410</v>
       </c>
       <c r="AA25" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AB25" t="n">
-        <v>720</v>
+        <v>1520</v>
       </c>
       <c r="AC25" t="n">
         <v>0</v>
@@ -10141,7 +10397,7 @@
         <v>10</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
@@ -10154,28 +10410,40 @@
         </is>
       </c>
       <c r="AL25" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO25" t="n">
         <v>1271762.297045</v>
       </c>
-      <c r="AM25" t="n">
+      <c r="AP25" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN25" t="n">
+      <c r="AQ25" t="n">
         <v>217127.38327053</v>
       </c>
-      <c r="AO25" t="n">
+      <c r="AR25" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP25" t="n">
-        <v>480680.6</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR25" t="n">
+      <c r="AS25" t="n">
+        <v>582355.5837636</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>203338.45</v>
+      </c>
+      <c r="AU25" t="n">
         <v>72037.60447990001</v>
       </c>
-      <c r="AS25" t="n">
-        <v>2224675.53479543</v>
+      <c r="AV25" t="n">
+        <v>1935747.050347072</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>4465436.018906102</v>
       </c>
     </row>
   </sheetData>
